--- a/EduSafe.Core.Tests/Resources/EduSafe-Website-For-Profit-Scenario-Testing-Small.xlsx
+++ b/EduSafe.Core.Tests/Resources/EduSafe-Website-For-Profit-Scenario-Testing-Small.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew M\edusafe\EduSafe.Core.Tests\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67E3241C-9A82-486F-B61B-110209195B50}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D904E5-1FAF-44D2-AA9C-CBB02EE825DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="780" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6180" yWindow="690" windowWidth="16185" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="2" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>Period</t>
   </si>
   <si>
-    <t>Income</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -727,6 +724,9 @@
   </si>
   <si>
     <t>World Literature</t>
+  </si>
+  <si>
+    <t>UnemploymentCoverage</t>
   </si>
 </sst>
 </file>
@@ -1334,11 +1334,11 @@
   <dimension ref="B2:X12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C8" sqref="C8"/>
       <selection pane="topRight" activeCell="C8" sqref="C8"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,7 +1359,7 @@
     <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" customWidth="1"/>
     <col min="18" max="19" width="9.7109375" customWidth="1"/>
     <col min="20" max="20" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -1369,25 +1369,25 @@
   <sheetData>
     <row r="2" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>1</v>
@@ -1402,40 +1402,40 @@
         <v>4</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="P2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="R2" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="Q2" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>7</v>
@@ -1500,10 +1500,10 @@
         <v>3</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V3" s="29">
         <v>1</v>
@@ -1521,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>7</v>
@@ -1578,10 +1578,10 @@
         <v>3</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V4" s="29">
         <v>1</v>
@@ -1599,7 +1599,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>7</v>
@@ -1656,10 +1656,10 @@
         <v>3</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V5" s="29">
         <v>1</v>
@@ -1677,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>7</v>
@@ -1734,10 +1734,10 @@
         <v>3</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V6" s="29">
         <v>1</v>
@@ -1755,7 +1755,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>7</v>
@@ -1812,10 +1812,10 @@
         <v>3</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V7" s="29">
         <v>1</v>
@@ -1833,7 +1833,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>7</v>
@@ -1890,10 +1890,10 @@
         <v>3</v>
       </c>
       <c r="T8" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V8" s="29">
         <v>1</v>
@@ -1911,7 +1911,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>7</v>
@@ -1968,10 +1968,10 @@
         <v>3</v>
       </c>
       <c r="T9" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U9" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V9" s="29">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>7</v>
@@ -2046,10 +2046,10 @@
         <v>3</v>
       </c>
       <c r="T10" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U10" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V10" s="29">
         <v>1</v>
@@ -2067,7 +2067,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>7</v>
@@ -2124,10 +2124,10 @@
         <v>3</v>
       </c>
       <c r="T11" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U11" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V11" s="29">
         <v>1</v>
@@ -2145,7 +2145,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>7</v>
@@ -2202,10 +2202,10 @@
         <v>3</v>
       </c>
       <c r="T12" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V12" s="29">
         <v>1</v>
@@ -2248,19 +2248,19 @@
   <sheetData>
     <row r="2" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="E2" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="38" t="s">
         <v>70</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -2268,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="40">
         <v>5.7999999999999996E-2</v>
@@ -2285,7 +2285,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="40">
         <v>4.5999999999999999E-2</v>
@@ -2302,7 +2302,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="40">
         <v>3.7000000000000005E-2</v>
@@ -2319,7 +2319,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="40">
         <v>3.7999999999999999E-2</v>
@@ -2336,7 +2336,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="40">
         <v>4.8000000000000001E-2</v>
@@ -2353,7 +2353,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="40">
         <v>4.4999999999999998E-2</v>
@@ -2370,7 +2370,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="40">
         <v>4.5999999999999999E-2</v>
@@ -2387,7 +2387,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="40">
         <v>4.4999999999999998E-2</v>
@@ -2404,7 +2404,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="40">
         <v>0.13800000000000001</v>
@@ -2421,7 +2421,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="40">
         <v>4.4999999999999998E-2</v>
@@ -2438,7 +2438,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="40">
         <v>6.8000000000000005E-2</v>
@@ -2455,7 +2455,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="40">
         <v>5.9000000000000004E-2</v>
@@ -2472,7 +2472,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="40">
         <v>4.7E-2</v>
@@ -2489,7 +2489,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="40">
         <v>4.9000000000000002E-2</v>
@@ -2506,7 +2506,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="40">
         <v>5.5999999999999994E-2</v>
@@ -2523,7 +2523,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" s="40">
         <v>4.9000000000000002E-2</v>
@@ -2540,7 +2540,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="40">
         <v>4.7E-2</v>
@@ -2557,7 +2557,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" s="40">
         <v>5.5E-2</v>
@@ -2574,7 +2574,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" s="40">
         <v>5.7000000000000002E-2</v>
@@ -2591,7 +2591,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="40">
         <v>4.7E-2</v>
@@ -2608,7 +2608,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23" s="40">
         <v>4.4000000000000004E-2</v>
@@ -2625,7 +2625,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="40">
         <v>4.7E-2</v>
@@ -2642,7 +2642,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D25" s="40">
         <v>6.6000000000000003E-2</v>
@@ -2659,7 +2659,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" s="40">
         <v>5.2000000000000005E-2</v>
@@ -2676,7 +2676,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D27" s="40">
         <v>4.4999999999999998E-2</v>
@@ -2693,7 +2693,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" s="40">
         <v>5.9000000000000004E-2</v>
@@ -2710,7 +2710,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="40">
         <v>8.5999999999999993E-2</v>
@@ -2727,7 +2727,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="40">
         <v>4.8000000000000001E-2</v>
@@ -2744,7 +2744,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="40">
         <v>6.4000000000000001E-2</v>
@@ -2761,7 +2761,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="40">
         <v>6.4000000000000001E-2</v>
@@ -2778,7 +2778,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="40">
         <v>8.5999999999999993E-2</v>
@@ -2795,7 +2795,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="40">
         <v>5.5999999999999994E-2</v>
@@ -2812,7 +2812,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="40">
         <v>5.5999999999999994E-2</v>
@@ -2829,7 +2829,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="40">
         <v>5.5999999999999994E-2</v>
@@ -2846,7 +2846,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37" s="40">
         <v>7.0999999999999994E-2</v>
@@ -2863,7 +2863,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D38" s="40">
         <v>5.5999999999999994E-2</v>
@@ -2880,7 +2880,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D39" s="40">
         <v>4.8000000000000001E-2</v>
@@ -2897,7 +2897,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D40" s="40">
         <v>3.9E-2</v>
@@ -2914,7 +2914,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D41" s="40">
         <v>6.2E-2</v>
@@ -2931,7 +2931,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D42" s="40">
         <v>6.8000000000000005E-2</v>
@@ -2948,7 +2948,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D43" s="40">
         <v>3.4000000000000002E-2</v>
@@ -2965,7 +2965,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D44" s="40">
         <v>5.5999999999999994E-2</v>
@@ -2982,7 +2982,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D45" s="40">
         <v>6.8000000000000005E-2</v>
@@ -2999,7 +2999,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D46" s="40">
         <v>4.5999999999999999E-2</v>
@@ -3016,7 +3016,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D47" s="40">
         <v>1.2E-2</v>
@@ -3033,7 +3033,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D48" s="40">
         <v>9.6999999999999989E-2</v>
@@ -3050,7 +3050,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D49" s="40">
         <v>4.9000000000000002E-2</v>
@@ -3067,7 +3067,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D50" s="40">
         <v>8.199999999999999E-2</v>
@@ -3084,7 +3084,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D51" s="40">
         <v>3.4000000000000002E-2</v>
@@ -3101,7 +3101,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D52" s="40">
         <v>2.8999999999999998E-2</v>
@@ -3118,7 +3118,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D53" s="40">
         <v>5.0999999999999997E-2</v>
@@ -3135,7 +3135,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D54" s="40">
         <v>4.8000000000000001E-2</v>
@@ -3152,7 +3152,7 @@
         <v>53</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D55" s="40">
         <v>3.2000000000000001E-2</v>
@@ -3169,7 +3169,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D56" s="40">
         <v>6.2E-2</v>
@@ -3186,7 +3186,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D57" s="40">
         <v>0.05</v>
@@ -3203,7 +3203,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D58" s="40">
         <v>4.7E-2</v>
@@ -3220,7 +3220,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D59" s="40">
         <v>4.9000000000000002E-2</v>
@@ -3237,7 +3237,7 @@
         <v>58</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D60" s="40">
         <v>7.5999999999999998E-2</v>
@@ -3254,7 +3254,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D61" s="40">
         <v>7.5999999999999998E-2</v>
@@ -3271,7 +3271,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D62" s="40">
         <v>9.6999999999999989E-2</v>
@@ -3288,7 +3288,7 @@
         <v>61</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D63" s="40">
         <v>4.4999999999999998E-2</v>
@@ -3305,7 +3305,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D64" s="40">
         <v>5.2000000000000005E-2</v>
@@ -3322,7 +3322,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D65" s="40">
         <v>3.9E-2</v>
@@ -3339,7 +3339,7 @@
         <v>64</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D66" s="40">
         <v>4.9000000000000002E-2</v>
@@ -3356,7 +3356,7 @@
         <v>65</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D67" s="40">
         <v>6.0999999999999999E-2</v>
@@ -3373,7 +3373,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D68" s="40">
         <v>6.2E-2</v>
@@ -3390,7 +3390,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D69" s="40">
         <v>7.5999999999999998E-2</v>
@@ -3407,7 +3407,7 @@
         <v>68</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D70" s="40">
         <v>7.5999999999999998E-2</v>
@@ -3424,7 +3424,7 @@
         <v>69</v>
       </c>
       <c r="C71" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D71" s="40">
         <v>6.2E-2</v>
@@ -3441,7 +3441,7 @@
         <v>70</v>
       </c>
       <c r="C72" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D72" s="40">
         <v>5.2000000000000005E-2</v>
@@ -3458,7 +3458,7 @@
         <v>71</v>
       </c>
       <c r="C73" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D73" s="40">
         <v>4.7E-2</v>
@@ -3475,7 +3475,7 @@
         <v>72</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D74" s="40">
         <v>4.2999999999999997E-2</v>
@@ -3492,7 +3492,7 @@
         <v>73</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D75" s="40">
         <v>3.6000000000000004E-2</v>
@@ -3509,7 +3509,7 @@
         <v>74</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D76" s="40">
         <v>9.1999999999999998E-2</v>
@@ -3526,7 +3526,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D77" s="40">
         <v>9.6999999999999989E-2</v>
@@ -3543,7 +3543,7 @@
         <v>76</v>
       </c>
       <c r="C78" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D78" s="40">
         <v>5.9000000000000004E-2</v>
@@ -3560,7 +3560,7 @@
         <v>77</v>
       </c>
       <c r="C79" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D79" s="40">
         <v>8.5999999999999993E-2</v>
@@ -3577,7 +3577,7 @@
         <v>78</v>
       </c>
       <c r="C80" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D80" s="40">
         <v>3.3000000000000002E-2</v>
@@ -3594,7 +3594,7 @@
         <v>79</v>
       </c>
       <c r="C81" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D81" s="40">
         <v>3.6000000000000004E-2</v>
@@ -3611,7 +3611,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D82" s="40">
         <v>8.4000000000000005E-2</v>
@@ -3628,7 +3628,7 @@
         <v>81</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D83" s="40">
         <v>3.9E-2</v>
@@ -3645,7 +3645,7 @@
         <v>82</v>
       </c>
       <c r="C84" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D84" s="40">
         <v>3.5000000000000003E-2</v>
@@ -3662,7 +3662,7 @@
         <v>83</v>
       </c>
       <c r="C85" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D85" s="40">
         <v>3.5000000000000003E-2</v>
@@ -3679,7 +3679,7 @@
         <v>84</v>
       </c>
       <c r="C86" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D86" s="40">
         <v>5.5999999999999994E-2</v>
@@ -3696,7 +3696,7 @@
         <v>85</v>
       </c>
       <c r="C87" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D87" s="40">
         <v>5.5999999999999994E-2</v>
@@ -3713,7 +3713,7 @@
         <v>86</v>
       </c>
       <c r="C88" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D88" s="40">
         <v>7.2000000000000008E-2</v>
@@ -3730,7 +3730,7 @@
         <v>87</v>
       </c>
       <c r="C89" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D89" s="40">
         <v>3.4000000000000002E-2</v>
@@ -3747,7 +3747,7 @@
         <v>88</v>
       </c>
       <c r="C90" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D90" s="40">
         <v>5.5999999999999994E-2</v>
@@ -3764,7 +3764,7 @@
         <v>89</v>
       </c>
       <c r="C91" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D91" s="40">
         <v>3.4000000000000002E-2</v>
@@ -3781,7 +3781,7 @@
         <v>90</v>
       </c>
       <c r="C92" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D92" s="40">
         <v>5.4000000000000006E-2</v>
@@ -3798,7 +3798,7 @@
         <v>91</v>
       </c>
       <c r="C93" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D93" s="40">
         <v>7.0999999999999994E-2</v>
@@ -3815,7 +3815,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D94" s="40">
         <v>7.5999999999999998E-2</v>
@@ -3832,7 +3832,7 @@
         <v>93</v>
       </c>
       <c r="C95" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D95" s="40">
         <v>7.2000000000000008E-2</v>
@@ -3849,7 +3849,7 @@
         <v>94</v>
       </c>
       <c r="C96" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D96" s="40">
         <v>8.5999999999999993E-2</v>
@@ -3866,7 +3866,7 @@
         <v>95</v>
       </c>
       <c r="C97" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D97" s="40">
         <v>7.8E-2</v>
@@ -3883,7 +3883,7 @@
         <v>96</v>
       </c>
       <c r="C98" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D98" s="40">
         <v>8.199999999999999E-2</v>
@@ -3900,7 +3900,7 @@
         <v>97</v>
       </c>
       <c r="C99" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D99" s="40">
         <v>6.5000000000000002E-2</v>
@@ -3917,7 +3917,7 @@
         <v>98</v>
       </c>
       <c r="C100" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D100" s="40">
         <v>3.4000000000000002E-2</v>
@@ -3934,7 +3934,7 @@
         <v>99</v>
       </c>
       <c r="C101" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D101" s="40">
         <v>4.9000000000000002E-2</v>
@@ -3951,7 +3951,7 @@
         <v>100</v>
       </c>
       <c r="C102" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D102" s="40">
         <v>4.5999999999999999E-2</v>
@@ -3968,7 +3968,7 @@
         <v>101</v>
       </c>
       <c r="C103" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D103" s="40">
         <v>4.5999999999999999E-2</v>
@@ -3985,7 +3985,7 @@
         <v>102</v>
       </c>
       <c r="C104" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D104" s="40">
         <v>8.199999999999999E-2</v>
@@ -4002,7 +4002,7 @@
         <v>103</v>
       </c>
       <c r="C105" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D105" s="40">
         <v>4.5999999999999999E-2</v>
@@ -4019,7 +4019,7 @@
         <v>104</v>
       </c>
       <c r="C106" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D106" s="40">
         <v>3.7000000000000005E-2</v>
@@ -4036,7 +4036,7 @@
         <v>105</v>
       </c>
       <c r="C107" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D107" s="40">
         <v>6.8000000000000005E-2</v>
@@ -4053,7 +4053,7 @@
         <v>106</v>
       </c>
       <c r="C108" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D108" s="40">
         <v>4.4999999999999998E-2</v>
@@ -4070,7 +4070,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D109" s="40">
         <v>4.9000000000000002E-2</v>
@@ -4087,7 +4087,7 @@
         <v>108</v>
       </c>
       <c r="C110" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D110" s="40">
         <v>8.199999999999999E-2</v>
@@ -4104,7 +4104,7 @@
         <v>109</v>
       </c>
       <c r="C111" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D111" s="40">
         <v>3.9E-2</v>
@@ -4121,7 +4121,7 @@
         <v>110</v>
       </c>
       <c r="C112" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D112" s="40">
         <v>4.7E-2</v>
@@ -4138,7 +4138,7 @@
         <v>111</v>
       </c>
       <c r="C113" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D113" s="40">
         <v>5.4000000000000006E-2</v>
@@ -4155,7 +4155,7 @@
         <v>112</v>
       </c>
       <c r="C114" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D114" s="40">
         <v>6.8000000000000005E-2</v>
@@ -4172,7 +4172,7 @@
         <v>113</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D115" s="40">
         <v>5.2000000000000005E-2</v>
@@ -4189,7 +4189,7 @@
         <v>114</v>
       </c>
       <c r="C116" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D116" s="40">
         <v>4.9000000000000002E-2</v>
@@ -4206,7 +4206,7 @@
         <v>115</v>
       </c>
       <c r="C117" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D117" s="40">
         <v>4.9000000000000002E-2</v>
@@ -4223,7 +4223,7 @@
         <v>116</v>
       </c>
       <c r="C118" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D118" s="40">
         <v>0.03</v>
@@ -4240,7 +4240,7 @@
         <v>117</v>
       </c>
       <c r="C119" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D119" s="40">
         <v>0.09</v>
@@ -4257,7 +4257,7 @@
         <v>118</v>
       </c>
       <c r="C120" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D120" s="40">
         <v>6.2E-2</v>
@@ -4274,7 +4274,7 @@
         <v>119</v>
       </c>
       <c r="C121" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D121" s="40">
         <v>3.5000000000000003E-2</v>
@@ -4291,7 +4291,7 @@
         <v>120</v>
       </c>
       <c r="C122" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D122" s="40">
         <v>0.03</v>
@@ -4308,7 +4308,7 @@
         <v>121</v>
       </c>
       <c r="C123" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D123" s="40">
         <v>0.03</v>
@@ -4325,7 +4325,7 @@
         <v>122</v>
       </c>
       <c r="C124" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D124" s="40">
         <v>7.8E-2</v>
@@ -4342,7 +4342,7 @@
         <v>123</v>
       </c>
       <c r="C125" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D125" s="40">
         <v>4.7E-2</v>
@@ -4359,7 +4359,7 @@
         <v>124</v>
       </c>
       <c r="C126" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D126" s="40">
         <v>3.5000000000000003E-2</v>
@@ -4376,7 +4376,7 @@
         <v>125</v>
       </c>
       <c r="C127" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D127" s="40">
         <v>4.7E-2</v>
@@ -4393,7 +4393,7 @@
         <v>126</v>
       </c>
       <c r="C128" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D128" s="40">
         <v>4.7E-2</v>
@@ -4410,7 +4410,7 @@
         <v>127</v>
       </c>
       <c r="C129" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D129" s="40">
         <v>4.9000000000000002E-2</v>
@@ -4427,7 +4427,7 @@
         <v>128</v>
       </c>
       <c r="C130" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D130" s="40">
         <v>5.9000000000000004E-2</v>
@@ -4444,7 +4444,7 @@
         <v>129</v>
       </c>
       <c r="C131" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D131" s="40">
         <v>4.5999999999999999E-2</v>
@@ -4461,7 +4461,7 @@
         <v>130</v>
       </c>
       <c r="C132" s="39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D132" s="40">
         <v>5.9000000000000004E-2</v>
@@ -4478,7 +4478,7 @@
         <v>131</v>
       </c>
       <c r="C133" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D133" s="40">
         <v>0.09</v>
@@ -4495,7 +4495,7 @@
         <v>132</v>
       </c>
       <c r="C134" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D134" s="40">
         <v>4.4999999999999998E-2</v>
@@ -4512,7 +4512,7 @@
         <v>133</v>
       </c>
       <c r="C135" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D135" s="40">
         <v>0.09</v>
@@ -4529,7 +4529,7 @@
         <v>134</v>
       </c>
       <c r="C136" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D136" s="40">
         <v>4.9000000000000002E-2</v>
@@ -4546,7 +4546,7 @@
         <v>135</v>
       </c>
       <c r="C137" s="39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D137" s="40">
         <v>5.7999999999999996E-2</v>
@@ -4563,7 +4563,7 @@
         <v>136</v>
       </c>
       <c r="C138" s="39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D138" s="40">
         <v>3.9E-2</v>
@@ -4580,7 +4580,7 @@
         <v>137</v>
       </c>
       <c r="C139" s="39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D139" s="40">
         <v>7.8E-2</v>
@@ -4597,7 +4597,7 @@
         <v>138</v>
       </c>
       <c r="C140" s="39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D140" s="40">
         <v>2.5000000000000001E-2</v>
@@ -4614,7 +4614,7 @@
         <v>139</v>
       </c>
       <c r="C141" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D141" s="40">
         <v>6.9000000000000006E-2</v>
@@ -4631,7 +4631,7 @@
         <v>140</v>
       </c>
       <c r="C142" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D142" s="40">
         <v>5.2999999999999999E-2</v>
@@ -4648,7 +4648,7 @@
         <v>141</v>
       </c>
       <c r="C143" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D143" s="40">
         <v>5.5999999999999994E-2</v>
@@ -4665,7 +4665,7 @@
         <v>142</v>
       </c>
       <c r="C144" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D144" s="40">
         <v>7.5999999999999998E-2</v>
@@ -4682,7 +4682,7 @@
         <v>143</v>
       </c>
       <c r="C145" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D145" s="40">
         <v>3.5000000000000003E-2</v>
@@ -4699,7 +4699,7 @@
         <v>144</v>
       </c>
       <c r="C146" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D146" s="40">
         <v>3.4000000000000002E-2</v>
@@ -4716,7 +4716,7 @@
         <v>145</v>
       </c>
       <c r="C147" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D147" s="40">
         <v>4.9000000000000002E-2</v>
@@ -4733,7 +4733,7 @@
         <v>146</v>
       </c>
       <c r="C148" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D148" s="40">
         <v>6.8000000000000005E-2</v>
@@ -4750,7 +4750,7 @@
         <v>147</v>
       </c>
       <c r="C149" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D149" s="40">
         <v>6.8000000000000005E-2</v>
@@ -4767,7 +4767,7 @@
         <v>148</v>
       </c>
       <c r="C150" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D150" s="40">
         <v>3.9E-2</v>
@@ -4784,7 +4784,7 @@
         <v>149</v>
       </c>
       <c r="C151" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D151" s="40">
         <v>4.8000000000000001E-2</v>
@@ -4801,7 +4801,7 @@
         <v>150</v>
       </c>
       <c r="C152" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D152" s="40">
         <v>3.5000000000000003E-2</v>
@@ -4818,7 +4818,7 @@
         <v>151</v>
       </c>
       <c r="C153" s="39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D153" s="40">
         <v>0.09</v>
@@ -4835,7 +4835,7 @@
         <v>152</v>
       </c>
       <c r="C154" s="39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D154" s="40">
         <v>4.4999999999999998E-2</v>
@@ -4852,7 +4852,7 @@
         <v>153</v>
       </c>
       <c r="C155" s="39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D155" s="40">
         <v>7.5999999999999998E-2</v>
@@ -4899,21 +4899,21 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="7">
         <v>100</v>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="7">
         <v>25</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="7">
         <v>25</v>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="7">
         <v>20</v>
@@ -4957,50 +4957,50 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7">
         <v>150</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="7">
         <v>150</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="7">
         <v>300</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="7">
         <v>1000</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -5032,53 +5032,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6370,15 +6370,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="23">
         <v>43453</v>
@@ -6389,7 +6389,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6998,125 +6998,125 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="24"/>
       <c r="C6" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="24"/>
       <c r="C7" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/EduSafe.Core.Tests/Resources/EduSafe-Website-For-Profit-Scenario-Testing-Small.xlsx
+++ b/EduSafe.Core.Tests/Resources/EduSafe-Website-For-Profit-Scenario-Testing-Small.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew M\edusafe\EduSafe.Core.Tests\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D904E5-1FAF-44D2-AA9C-CBB02EE825DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BABED41-1DFB-4BCF-87C5-AE3799DD1B80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="690" windowWidth="16185" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="765" windowWidth="16080" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="2" r:id="rId1"/>
@@ -22,16 +22,18 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'NCES Data By Major'!$C$2:$F$155</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Scenarios!$B$2:$X$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Scenarios!$B$2:$Z$12</definedName>
     <definedName name="Assumptions_TargetEnd_Scenario2">'[1]Assumptions - Dropouts'!$F$4</definedName>
     <definedName name="Assumptions_TargetEnd_Scenario3">'[1]Assumptions - Dropouts'!$F$5</definedName>
     <definedName name="Assumptions_TargetEnd_Scenario4">'[1]Assumptions - Dropouts'!$F$6</definedName>
     <definedName name="Assumptions_TargetStart_Scenario2">'[1]Assumptions - Dropouts'!$D$4</definedName>
     <definedName name="Assumptions_TargetStart_Scenario3">'[1]Assumptions - Dropouts'!$D$5</definedName>
     <definedName name="Assumptions_TargetStart_Scenario4">'[1]Assumptions - Dropouts'!$D$6</definedName>
+    <definedName name="CostModelNames">'[2]Lists Options (Ignored)'!$F$3:$F$4</definedName>
     <definedName name="EventTypes">'Lists Options (Ignored)'!$C$3:$C$7</definedName>
     <definedName name="InterestRateTypes">'Lists Options (Ignored)'!$D$3:$D$16</definedName>
     <definedName name="VectorTypes">'Lists Options (Ignored)'!$B$3:$B$4</definedName>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="230">
   <si>
     <t>Scenario</t>
   </si>
@@ -246,12 +248,6 @@
     <t>Interest Rate Types</t>
   </si>
   <si>
-    <t>CoverageMonths</t>
-  </si>
-  <si>
-    <t>AnnualIncome</t>
-  </si>
-  <si>
     <t>For-Profit College</t>
   </si>
   <si>
@@ -727,6 +723,27 @@
   </si>
   <si>
     <t>UnemploymentCoverage</t>
+  </si>
+  <si>
+    <t>DropOutWarranty</t>
+  </si>
+  <si>
+    <t>WarrantyCoverageMonths</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>CostModelName</t>
+  </si>
+  <si>
+    <t>Institutional</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Margin</t>
   </si>
 </sst>
 </file>
@@ -811,7 +828,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -877,13 +894,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -947,9 +1001,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -977,6 +1028,42 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1060,6 +1147,48 @@
       <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9" refreshError="1"/>
       <sheetData sheetId="10" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="ForecastingParameters"/>
+      <sheetName val="ForecastedEnrollments"/>
+      <sheetName val="ForecastedFirstYearPercent"/>
+      <sheetName val="ReinvestmentOptions"/>
+      <sheetName val="Scenarios"/>
+      <sheetName val="ShockParameters"/>
+      <sheetName val="Costs"/>
+      <sheetName val="Vectors"/>
+      <sheetName val="DiscountRates"/>
+      <sheetName val="Lists Options (Ignored)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9">
+        <row r="3">
+          <cell r="F3" t="str">
+            <v>Institutional</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4" t="str">
+            <v>Individual</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1331,14 +1460,14 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="B2:X12"/>
+  <dimension ref="B2:Z12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C8" sqref="C8"/>
       <selection pane="topRight" activeCell="C8" sqref="C8"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,28 +1475,31 @@
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="5.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" customWidth="1"/>
-    <col min="18" max="19" width="9.7109375" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.140625" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>20</v>
       </c>
@@ -1378,849 +1510,893 @@
         <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="Q2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="S2" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="T2" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="U2" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="R2" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="S2" s="28" t="s">
+      <c r="V2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>64</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V2" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="42">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
         <v>5</v>
       </c>
-      <c r="F3" s="27">
+      <c r="H3" s="42">
         <v>0.25</v>
       </c>
-      <c r="G3" s="27">
+      <c r="I3" s="42">
         <v>0.5</v>
       </c>
-      <c r="H3" s="27">
+      <c r="J3" s="42">
         <v>0.25</v>
       </c>
-      <c r="I3" s="30">
+      <c r="K3" s="29">
         <v>14.5079231933478</v>
       </c>
-      <c r="J3" s="31">
+      <c r="L3" s="30">
         <v>4.4493882091212456</v>
       </c>
-      <c r="K3" s="30">
+      <c r="M3" s="29">
         <v>1.8745783110559984</v>
       </c>
-      <c r="L3" s="32">
-        <f t="shared" ref="L3" si="0">100-SUM(I3:K3)</f>
+      <c r="N3" s="31">
+        <f t="shared" ref="N3" si="0">100-SUM(K3:M3)</f>
         <v>79.168110286474956</v>
       </c>
-      <c r="M3" s="9">
-        <f t="shared" ref="M3" si="1">100-L3-SUM(N3:O3)-E3</f>
+      <c r="O3" s="9">
+        <f t="shared" ref="O3" si="1">100-N3-SUM(P3:Q3)-G3</f>
         <v>9.3318897135250438</v>
       </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="33">
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="32">
         <f>MIN(('NCES Data By Major'!D3+'NCES Data By Major'!E3)*100,
-100-(L3+N3+E3))</f>
+100-(N3+P3+G3))</f>
         <v>6.5</v>
       </c>
-      <c r="P3" s="2">
+      <c r="R3" s="2">
         <v>42</v>
       </c>
-      <c r="Q3" s="29">
-        <f>R3/S3</f>
-        <v>19333.333333333332</v>
-      </c>
-      <c r="R3" s="29">
-        <f>'NCES Data By Major'!F3</f>
-        <v>58000</v>
-      </c>
-      <c r="S3" s="29">
-        <v>3</v>
-      </c>
-      <c r="T3" s="15" t="s">
+      <c r="S3" s="28">
+        <v>14500</v>
+      </c>
+      <c r="T3" s="28">
+        <v>0</v>
+      </c>
+      <c r="U3" s="28">
+        <v>0</v>
+      </c>
+      <c r="V3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="W3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="29">
-        <v>1</v>
-      </c>
-      <c r="W3" s="7">
-        <v>0</v>
-      </c>
-      <c r="X3" s="8">
+      <c r="X3" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="8">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
         <f>B3+1</f>
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="42">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>5</v>
       </c>
-      <c r="F4" s="27">
+      <c r="H4" s="42">
         <v>0.25</v>
       </c>
-      <c r="G4" s="27">
+      <c r="I4" s="42">
         <v>0.5</v>
       </c>
-      <c r="H4" s="27">
+      <c r="J4" s="42">
         <v>0.25</v>
       </c>
-      <c r="I4" s="30">
+      <c r="K4" s="29">
         <v>14.5079231933478</v>
       </c>
-      <c r="J4" s="31">
+      <c r="L4" s="30">
         <v>4.4493882091212456</v>
       </c>
-      <c r="K4" s="30">
+      <c r="M4" s="29">
         <v>1.8745783110559984</v>
       </c>
-      <c r="L4" s="32">
-        <f t="shared" ref="L4" si="2">100-SUM(I4:K4)</f>
+      <c r="N4" s="31">
+        <f t="shared" ref="N4" si="2">100-SUM(K4:M4)</f>
         <v>79.168110286474956</v>
       </c>
-      <c r="M4" s="9">
-        <f t="shared" ref="M4" si="3">100-L4-SUM(N4:O4)-E4</f>
+      <c r="O4" s="9">
+        <f t="shared" ref="O4" si="3">100-N4-SUM(P4:Q4)-G4</f>
         <v>10.231889713525042</v>
       </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="33">
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="32">
         <f>MIN(('NCES Data By Major'!D4+'NCES Data By Major'!E4)*100,
-100-(L4+N4+E4))</f>
+100-(N4+P4+G4))</f>
         <v>5.6000000000000005</v>
       </c>
-      <c r="P4" s="2">
+      <c r="R4" s="2">
         <v>42</v>
       </c>
-      <c r="Q4" s="29">
-        <f t="shared" ref="Q4:Q12" si="4">R4/S4</f>
-        <v>18333.333333333332</v>
-      </c>
-      <c r="R4" s="29">
-        <f>'NCES Data By Major'!F4</f>
-        <v>55000</v>
-      </c>
-      <c r="S4" s="29">
+      <c r="S4" s="28">
+        <v>13750</v>
+      </c>
+      <c r="T4" s="28">
+        <v>0</v>
+      </c>
+      <c r="U4" s="28">
+        <v>0</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
+        <f t="shared" ref="B5:B12" si="4">B4+1</f>
         <v>3</v>
       </c>
-      <c r="T4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" s="29">
-        <v>1</v>
-      </c>
-      <c r="W4" s="7">
-        <v>0</v>
-      </c>
-      <c r="X4" s="8">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B5" s="10">
-        <f t="shared" ref="B5:B12" si="5">B4+1</f>
-        <v>3</v>
-      </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="42">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
         <v>5</v>
       </c>
-      <c r="F5" s="27">
+      <c r="H5" s="42">
         <v>0.25</v>
       </c>
-      <c r="G5" s="27">
+      <c r="I5" s="42">
         <v>0.5</v>
       </c>
-      <c r="H5" s="27">
+      <c r="J5" s="42">
         <v>0.25</v>
       </c>
-      <c r="I5" s="30">
+      <c r="K5" s="29">
         <v>14.5079231933478</v>
       </c>
-      <c r="J5" s="31">
+      <c r="L5" s="30">
         <v>4.4493882091212456</v>
       </c>
-      <c r="K5" s="30">
+      <c r="M5" s="29">
         <v>1.8745783110559984</v>
       </c>
-      <c r="L5" s="32">
-        <f t="shared" ref="L5:L12" si="6">100-SUM(I5:K5)</f>
+      <c r="N5" s="31">
+        <f t="shared" ref="N5:N12" si="5">100-SUM(K5:M5)</f>
         <v>79.168110286474956</v>
       </c>
-      <c r="M5" s="9">
-        <f t="shared" ref="M5:M12" si="7">100-L5-SUM(N5:O5)-E5</f>
+      <c r="O5" s="9">
+        <f t="shared" ref="O5:O12" si="6">100-N5-SUM(P5:Q5)-G5</f>
         <v>11.331889713525044</v>
       </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="33">
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="32">
         <f>MIN(('NCES Data By Major'!D5+'NCES Data By Major'!E5)*100,
-100-(L5+N5+E5))</f>
+100-(N5+P5+G5))</f>
         <v>4.5000000000000009</v>
       </c>
-      <c r="P5" s="2">
+      <c r="R5" s="2">
         <v>42</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="S5" s="28">
+        <v>18000</v>
+      </c>
+      <c r="T5" s="28">
+        <v>0</v>
+      </c>
+      <c r="U5" s="28">
+        <v>0</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="X5" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
         <f t="shared" si="4"/>
-        <v>24000</v>
-      </c>
-      <c r="R5" s="29">
-        <f>'NCES Data By Major'!F5</f>
-        <v>72000</v>
-      </c>
-      <c r="S5" s="29">
-        <v>3</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="U5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="V5" s="29">
-        <v>1</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0</v>
-      </c>
-      <c r="X5" s="8">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
-        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="42">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
         <v>5</v>
       </c>
-      <c r="F6" s="27">
+      <c r="H6" s="42">
         <v>0.25</v>
       </c>
-      <c r="G6" s="27">
+      <c r="I6" s="42">
         <v>0.5</v>
       </c>
-      <c r="H6" s="27">
+      <c r="J6" s="42">
         <v>0.25</v>
       </c>
-      <c r="I6" s="30">
+      <c r="K6" s="29">
         <v>14.5079231933478</v>
       </c>
-      <c r="J6" s="31">
+      <c r="L6" s="30">
         <v>4.4493882091212456</v>
       </c>
-      <c r="K6" s="30">
+      <c r="M6" s="29">
         <v>1.8745783110559984</v>
       </c>
-      <c r="L6" s="32">
+      <c r="N6" s="31">
+        <f t="shared" si="5"/>
+        <v>79.168110286474956</v>
+      </c>
+      <c r="O6" s="9">
         <f t="shared" si="6"/>
-        <v>79.168110286474956</v>
-      </c>
-      <c r="M6" s="9">
-        <f t="shared" si="7"/>
         <v>11.031889713525043</v>
       </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="33">
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="32">
         <f>MIN(('NCES Data By Major'!D6+'NCES Data By Major'!E6)*100,
-100-(L6+N6+E6))</f>
+100-(N6+P6+G6))</f>
         <v>4.8</v>
       </c>
-      <c r="P6" s="2">
+      <c r="R6" s="2">
         <v>42</v>
       </c>
-      <c r="Q6" s="29">
+      <c r="S6" s="28">
+        <v>11250</v>
+      </c>
+      <c r="T6" s="28">
+        <v>0</v>
+      </c>
+      <c r="U6" s="28">
+        <v>0</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="X6" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
         <f t="shared" si="4"/>
-        <v>15000</v>
-      </c>
-      <c r="R6" s="29">
-        <f>'NCES Data By Major'!F6</f>
-        <v>45000</v>
-      </c>
-      <c r="S6" s="29">
-        <v>3</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="U6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="V6" s="29">
-        <v>1</v>
-      </c>
-      <c r="W6" s="7">
-        <v>0</v>
-      </c>
-      <c r="X6" s="8">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
-        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="42">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
         <v>5</v>
       </c>
-      <c r="F7" s="27">
+      <c r="H7" s="42">
         <v>0.25</v>
       </c>
-      <c r="G7" s="27">
+      <c r="I7" s="42">
         <v>0.5</v>
       </c>
-      <c r="H7" s="27">
+      <c r="J7" s="42">
         <v>0.25</v>
       </c>
-      <c r="I7" s="30">
+      <c r="K7" s="29">
         <v>14.5079231933478</v>
       </c>
-      <c r="J7" s="31">
+      <c r="L7" s="30">
         <v>4.4493882091212456</v>
       </c>
-      <c r="K7" s="30">
+      <c r="M7" s="29">
         <v>1.8745783110559984</v>
       </c>
-      <c r="L7" s="32">
+      <c r="N7" s="31">
+        <f t="shared" si="5"/>
+        <v>79.168110286474956</v>
+      </c>
+      <c r="O7" s="9">
         <f t="shared" si="6"/>
-        <v>79.168110286474956</v>
-      </c>
-      <c r="M7" s="9">
-        <f t="shared" si="7"/>
         <v>9.4318897135250435</v>
       </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="33">
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="32">
         <f>MIN(('NCES Data By Major'!D7+'NCES Data By Major'!E7)*100,
-100-(L7+N7+E7))</f>
+100-(N7+P7+G7))</f>
         <v>6.4</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42</v>
       </c>
-      <c r="Q7" s="29">
+      <c r="S7" s="28">
+        <v>14750</v>
+      </c>
+      <c r="T7" s="28">
+        <v>0</v>
+      </c>
+      <c r="U7" s="28">
+        <v>0</v>
+      </c>
+      <c r="V7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="X7" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
         <f t="shared" si="4"/>
-        <v>19666.666666666668</v>
-      </c>
-      <c r="R7" s="29">
-        <f>'NCES Data By Major'!F7</f>
-        <v>59000</v>
-      </c>
-      <c r="S7" s="29">
-        <v>3</v>
-      </c>
-      <c r="T7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="U7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="V7" s="29">
-        <v>1</v>
-      </c>
-      <c r="W7" s="7">
-        <v>0</v>
-      </c>
-      <c r="X7" s="8">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
-        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="42">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
         <v>5</v>
       </c>
-      <c r="F8" s="27">
+      <c r="H8" s="42">
         <v>0.25</v>
       </c>
-      <c r="G8" s="27">
+      <c r="I8" s="42">
         <v>0.5</v>
       </c>
-      <c r="H8" s="27">
+      <c r="J8" s="42">
         <v>0.25</v>
       </c>
-      <c r="I8" s="30">
+      <c r="K8" s="29">
         <v>14.5079231933478</v>
       </c>
-      <c r="J8" s="31">
+      <c r="L8" s="30">
         <v>4.4493882091212456</v>
       </c>
-      <c r="K8" s="30">
+      <c r="M8" s="29">
         <v>1.8745783110559984</v>
       </c>
-      <c r="L8" s="32">
+      <c r="N8" s="31">
+        <f t="shared" si="5"/>
+        <v>79.168110286474956</v>
+      </c>
+      <c r="O8" s="9">
         <f t="shared" si="6"/>
-        <v>79.168110286474956</v>
-      </c>
-      <c r="M8" s="9">
-        <f t="shared" si="7"/>
         <v>10.231889713525042</v>
       </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="33">
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="32">
         <f>MIN(('NCES Data By Major'!D8+'NCES Data By Major'!E8)*100,
-100-(L8+N8+E8))</f>
+100-(N8+P8+G8))</f>
         <v>5.6000000000000005</v>
       </c>
-      <c r="P8" s="2">
+      <c r="R8" s="2">
         <v>42</v>
       </c>
-      <c r="Q8" s="29">
+      <c r="S8" s="28">
+        <v>10250</v>
+      </c>
+      <c r="T8" s="28">
+        <v>0</v>
+      </c>
+      <c r="U8" s="28">
+        <v>0</v>
+      </c>
+      <c r="V8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="W8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="X8" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="44">
         <f t="shared" si="4"/>
-        <v>13666.666666666666</v>
-      </c>
-      <c r="R8" s="29">
-        <f>'NCES Data By Major'!F8</f>
-        <v>41000</v>
-      </c>
-      <c r="S8" s="29">
-        <v>3</v>
-      </c>
-      <c r="T8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="U8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="F9" s="47">
+        <v>0.15</v>
+      </c>
+      <c r="G9" s="48">
+        <v>0</v>
+      </c>
+      <c r="H9" s="47">
+        <v>0</v>
+      </c>
+      <c r="I9" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="J9" s="47">
+        <v>0</v>
+      </c>
+      <c r="K9" s="49">
+        <v>18.7</v>
+      </c>
+      <c r="L9" s="50">
+        <v>4.9000000000000021</v>
+      </c>
+      <c r="M9" s="49">
+        <v>2</v>
+      </c>
+      <c r="N9" s="51">
+        <f t="shared" si="5"/>
+        <v>74.400000000000006</v>
+      </c>
+      <c r="O9" s="52">
+        <f t="shared" si="6"/>
+        <v>19.199999999999996</v>
+      </c>
+      <c r="P9" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="53">
+        <v>6.3999999999999986</v>
+      </c>
+      <c r="R9" s="48">
+        <v>0</v>
+      </c>
+      <c r="S9" s="54">
+        <v>4104.0809867778062</v>
+      </c>
+      <c r="T9" s="54">
+        <v>3078.0607400833542</v>
+      </c>
+      <c r="U9" s="54">
+        <v>12</v>
+      </c>
+      <c r="V9" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="W9" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="V8" s="29">
-        <v>1</v>
-      </c>
-      <c r="W8" s="7">
-        <v>0</v>
-      </c>
-      <c r="X8" s="8">
+      <c r="X9" s="54">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="56">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="57">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2">
-        <v>5</v>
-      </c>
-      <c r="F9" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="G9" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="I9" s="30">
-        <v>14.5079231933478</v>
-      </c>
-      <c r="J9" s="31">
-        <v>4.4493882091212456</v>
-      </c>
-      <c r="K9" s="30">
-        <v>1.8745783110559984</v>
-      </c>
-      <c r="L9" s="32">
-        <f t="shared" si="6"/>
-        <v>79.168110286474956</v>
-      </c>
-      <c r="M9" s="9">
-        <f t="shared" si="7"/>
-        <v>10.231889713525042</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="33">
-        <f>MIN(('NCES Data By Major'!D9+'NCES Data By Major'!E9)*100,
-100-(L9+N9+E9))</f>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="P9" s="2">
-        <v>42</v>
-      </c>
-      <c r="Q9" s="29">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
         <f t="shared" si="4"/>
-        <v>18333.333333333332</v>
-      </c>
-      <c r="R9" s="29">
-        <f>'NCES Data By Major'!F9</f>
-        <v>55000</v>
-      </c>
-      <c r="S9" s="29">
-        <v>3</v>
-      </c>
-      <c r="T9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="U9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="V9" s="29">
-        <v>1</v>
-      </c>
-      <c r="W9" s="7">
-        <v>0</v>
-      </c>
-      <c r="X9" s="8">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
-        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="42">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
         <v>5</v>
       </c>
-      <c r="F10" s="27">
+      <c r="H10" s="42">
         <v>0.25</v>
       </c>
-      <c r="G10" s="27">
+      <c r="I10" s="42">
         <v>0.5</v>
       </c>
-      <c r="H10" s="27">
+      <c r="J10" s="42">
         <v>0.25</v>
       </c>
-      <c r="I10" s="30">
+      <c r="K10" s="29">
         <v>14.5079231933478</v>
       </c>
-      <c r="J10" s="31">
+      <c r="L10" s="30">
         <v>4.4493882091212456</v>
       </c>
-      <c r="K10" s="30">
+      <c r="M10" s="29">
         <v>1.8745783110559984</v>
       </c>
-      <c r="L10" s="32">
+      <c r="N10" s="31">
+        <f t="shared" si="5"/>
+        <v>79.168110286474956</v>
+      </c>
+      <c r="O10" s="9">
         <f t="shared" si="6"/>
-        <v>79.168110286474956</v>
-      </c>
-      <c r="M10" s="9">
-        <f t="shared" si="7"/>
         <v>10.231889713525042</v>
       </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="33">
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="32">
         <f>MIN(('NCES Data By Major'!D10+'NCES Data By Major'!E10)*100,
-100-(L10+N10+E10))</f>
+100-(N10+P10+G10))</f>
         <v>5.6000000000000005</v>
       </c>
-      <c r="P10" s="2">
+      <c r="R10" s="2">
         <v>42</v>
       </c>
-      <c r="Q10" s="29">
+      <c r="S10" s="28">
+        <v>10250</v>
+      </c>
+      <c r="T10" s="28">
+        <v>0</v>
+      </c>
+      <c r="U10" s="28">
+        <v>0</v>
+      </c>
+      <c r="V10" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="W10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="X10" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
         <f t="shared" si="4"/>
-        <v>13666.666666666666</v>
-      </c>
-      <c r="R10" s="29">
-        <f>'NCES Data By Major'!F10</f>
-        <v>41000</v>
-      </c>
-      <c r="S10" s="29">
-        <v>3</v>
-      </c>
-      <c r="T10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="U10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="V10" s="29">
-        <v>1</v>
-      </c>
-      <c r="W10" s="7">
-        <v>0</v>
-      </c>
-      <c r="X10" s="8">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
-        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="42">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
         <v>5</v>
       </c>
-      <c r="F11" s="27">
+      <c r="H11" s="42">
         <v>0.25</v>
       </c>
-      <c r="G11" s="27">
+      <c r="I11" s="42">
         <v>0.5</v>
       </c>
-      <c r="H11" s="27">
+      <c r="J11" s="42">
         <v>0.25</v>
       </c>
-      <c r="I11" s="30">
+      <c r="K11" s="29">
         <v>14.5079231933478</v>
       </c>
-      <c r="J11" s="31">
+      <c r="L11" s="30">
         <v>4.4493882091212456</v>
       </c>
-      <c r="K11" s="30">
+      <c r="M11" s="29">
         <v>1.8745783110559984</v>
       </c>
-      <c r="L11" s="32">
+      <c r="N11" s="31">
+        <f t="shared" si="5"/>
+        <v>79.168110286474956</v>
+      </c>
+      <c r="O11" s="9">
         <f t="shared" si="6"/>
-        <v>79.168110286474956</v>
-      </c>
-      <c r="M11" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="33">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="32">
         <f>MIN(('NCES Data By Major'!D11+'NCES Data By Major'!E11)*100,
-100-(L11+N11+E11))</f>
+100-(N11+P11+G11))</f>
         <v>15.831889713525044</v>
       </c>
-      <c r="P11" s="2">
+      <c r="R11" s="2">
         <v>42</v>
       </c>
-      <c r="Q11" s="29">
+      <c r="S11" s="28">
+        <v>12500</v>
+      </c>
+      <c r="T11" s="28">
+        <v>0</v>
+      </c>
+      <c r="U11" s="28">
+        <v>0</v>
+      </c>
+      <c r="V11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="W11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="X11" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
         <f t="shared" si="4"/>
-        <v>16666.666666666668</v>
-      </c>
-      <c r="R11" s="29">
-        <f>'NCES Data By Major'!F11</f>
-        <v>50000</v>
-      </c>
-      <c r="S11" s="29">
-        <v>3</v>
-      </c>
-      <c r="T11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="U11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="V11" s="29">
-        <v>1</v>
-      </c>
-      <c r="W11" s="7">
-        <v>0</v>
-      </c>
-      <c r="X11" s="8">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
-        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="42">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
         <v>5</v>
       </c>
-      <c r="F12" s="27">
+      <c r="H12" s="42">
         <v>0.25</v>
       </c>
-      <c r="G12" s="27">
+      <c r="I12" s="42">
         <v>0.5</v>
       </c>
-      <c r="H12" s="27">
+      <c r="J12" s="42">
         <v>0.25</v>
       </c>
-      <c r="I12" s="30">
+      <c r="K12" s="29">
         <v>14.5079231933478</v>
       </c>
-      <c r="J12" s="31">
+      <c r="L12" s="30">
         <v>4.4493882091212456</v>
       </c>
-      <c r="K12" s="30">
+      <c r="M12" s="29">
         <v>1.8745783110559984</v>
       </c>
-      <c r="L12" s="32">
+      <c r="N12" s="31">
+        <f t="shared" si="5"/>
+        <v>79.168110286474956</v>
+      </c>
+      <c r="O12" s="9">
         <f t="shared" si="6"/>
-        <v>79.168110286474956</v>
-      </c>
-      <c r="M12" s="9">
-        <f t="shared" si="7"/>
         <v>10.231889713525042</v>
       </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="33">
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="32">
         <f>MIN(('NCES Data By Major'!D12+'NCES Data By Major'!E12)*100,
-100-(L12+N12+E12))</f>
+100-(N12+P12+G12))</f>
         <v>5.6000000000000005</v>
       </c>
-      <c r="P12" s="2">
+      <c r="R12" s="2">
         <v>42</v>
       </c>
-      <c r="Q12" s="29">
-        <f t="shared" si="4"/>
-        <v>13666.666666666666</v>
-      </c>
-      <c r="R12" s="29">
-        <f>'NCES Data By Major'!F12</f>
-        <v>41000</v>
-      </c>
-      <c r="S12" s="29">
-        <v>3</v>
-      </c>
-      <c r="T12" s="15" t="s">
+      <c r="S12" s="28">
+        <v>10250</v>
+      </c>
+      <c r="T12" s="28">
+        <v>0</v>
+      </c>
+      <c r="U12" s="28">
+        <v>0</v>
+      </c>
+      <c r="V12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="U12" s="15" t="s">
+      <c r="W12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="V12" s="29">
-        <v>1</v>
-      </c>
-      <c r="W12" s="7">
-        <v>0</v>
-      </c>
-      <c r="X12" s="8">
+      <c r="X12" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="8">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:X12" xr:uid="{41D0623F-35E4-467D-8335-5335D24492F3}"/>
+  <autoFilter ref="B2:Z12" xr:uid="{41D0623F-35E4-467D-8335-5335D24492F3}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U12" xr:uid="{3EE6BC6F-6AD2-4260-AAC6-BB0AE485DC9E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W12" xr:uid="{3EE6BC6F-6AD2-4260-AAC6-BB0AE485DC9E}">
       <formula1>InterestRateTypes</formula1>
     </dataValidation>
   </dataValidations>
@@ -2247,36 +2423,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="F2" s="37" t="s">
         <v>68</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="40">
+      <c r="C3" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="39">
         <v>5.7999999999999996E-2</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="40">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="41">
         <v>58000</v>
       </c>
     </row>
@@ -2284,16 +2460,16 @@
       <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="40">
+      <c r="C4" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="39">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="40">
         <v>0.01</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="41">
         <v>55000</v>
       </c>
     </row>
@@ -2301,16 +2477,16 @@
       <c r="B5" s="10">
         <v>3</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="40">
+      <c r="C5" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="39">
         <v>3.7000000000000005E-2</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="40">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="41">
         <v>72000</v>
       </c>
     </row>
@@ -2318,16 +2494,16 @@
       <c r="B6" s="10">
         <v>4</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="40">
+      <c r="C6" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="39">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="40">
         <v>0.01</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="41">
         <v>45000</v>
       </c>
     </row>
@@ -2335,16 +2511,16 @@
       <c r="B7" s="10">
         <v>5</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="40">
+      <c r="C7" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="39">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="40">
         <v>1.6E-2</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="41">
         <v>59000</v>
       </c>
     </row>
@@ -2352,16 +2528,16 @@
       <c r="B8" s="10">
         <v>6</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="40">
+      <c r="C8" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="39">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="40">
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="41">
         <v>41000</v>
       </c>
     </row>
@@ -2369,16 +2545,16 @@
       <c r="B9" s="10">
         <v>7</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="40">
+      <c r="C9" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="39">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="40">
         <v>0.01</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="41">
         <v>55000</v>
       </c>
     </row>
@@ -2386,16 +2562,16 @@
       <c r="B10" s="10">
         <v>8</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="40">
+      <c r="C10" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="39">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="40">
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="41">
         <v>41000</v>
       </c>
     </row>
@@ -2403,16 +2579,16 @@
       <c r="B11" s="10">
         <v>9</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="40">
+      <c r="C11" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="39">
         <v>0.13800000000000001</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="40">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="41">
         <v>50000</v>
       </c>
     </row>
@@ -2420,16 +2596,16 @@
       <c r="B12" s="10">
         <v>10</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="40">
+      <c r="C12" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="39">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="40">
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="41">
         <v>41000</v>
       </c>
     </row>
@@ -2437,16 +2613,16 @@
       <c r="B13" s="10">
         <v>11</v>
       </c>
-      <c r="C13" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="40">
+      <c r="C13" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="39">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="40">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="41">
         <v>40000</v>
       </c>
     </row>
@@ -2454,16 +2630,16 @@
       <c r="B14" s="10">
         <v>12</v>
       </c>
-      <c r="C14" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="40">
+      <c r="C14" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="39">
         <v>5.9000000000000004E-2</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="41">
         <v>40000</v>
       </c>
     </row>
@@ -2471,16 +2647,16 @@
       <c r="B15" s="10">
         <v>13</v>
       </c>
-      <c r="C15" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="40">
+      <c r="C15" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="39">
         <v>4.7E-2</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="40">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="41">
         <v>48000</v>
       </c>
     </row>
@@ -2488,16 +2664,16 @@
       <c r="B16" s="10">
         <v>14</v>
       </c>
-      <c r="C16" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="40">
+      <c r="C16" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="39">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="40">
         <v>0.01</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="41">
         <v>70000</v>
       </c>
     </row>
@@ -2505,16 +2681,16 @@
       <c r="B17" s="10">
         <v>15</v>
       </c>
-      <c r="C17" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="40">
+      <c r="C17" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="39">
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="41">
         <v>65000</v>
       </c>
     </row>
@@ -2522,16 +2698,16 @@
       <c r="B18" s="10">
         <v>16</v>
       </c>
-      <c r="C18" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="40">
+      <c r="C18" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="39">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="41">
         <v>49000</v>
       </c>
     </row>
@@ -2539,16 +2715,16 @@
       <c r="B19" s="10">
         <v>17</v>
       </c>
-      <c r="C19" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="40">
+      <c r="C19" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="39">
         <v>4.7E-2</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="40">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="41">
         <v>48000</v>
       </c>
     </row>
@@ -2556,16 +2732,16 @@
       <c r="B20" s="10">
         <v>18</v>
       </c>
-      <c r="C20" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="40">
+      <c r="C20" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="39">
         <v>5.5E-2</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="40">
         <v>2E-3</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="41">
         <v>52000</v>
       </c>
     </row>
@@ -2573,16 +2749,16 @@
       <c r="B21" s="10">
         <v>19</v>
       </c>
-      <c r="C21" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="40">
+      <c r="C21" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="39">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="40">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="41">
         <v>50000</v>
       </c>
     </row>
@@ -2590,16 +2766,16 @@
       <c r="B22" s="10">
         <v>20</v>
       </c>
-      <c r="C22" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="40">
+      <c r="C22" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="39">
         <v>4.7E-2</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="40">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="41">
         <v>48000</v>
       </c>
     </row>
@@ -2607,16 +2783,16 @@
       <c r="B23" s="10">
         <v>21</v>
       </c>
-      <c r="C23" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="40">
+      <c r="C23" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="39">
         <v>4.4000000000000004E-2</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="40">
         <v>1.3999999999999999E-2</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="41">
         <v>69000</v>
       </c>
     </row>
@@ -2624,16 +2800,16 @@
       <c r="B24" s="10">
         <v>22</v>
       </c>
-      <c r="C24" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="40">
+      <c r="C24" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="39">
         <v>4.7E-2</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="40">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="41">
         <v>48000</v>
       </c>
     </row>
@@ -2641,16 +2817,16 @@
       <c r="B25" s="10">
         <v>23</v>
       </c>
-      <c r="C25" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="40">
+      <c r="C25" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="39">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="40">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="41">
         <v>63000</v>
       </c>
     </row>
@@ -2658,16 +2834,16 @@
       <c r="B26" s="10">
         <v>24</v>
       </c>
-      <c r="C26" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="40">
+      <c r="C26" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="39">
         <v>5.2000000000000005E-2</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="40">
         <v>1.6E-2</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="41">
         <v>42000</v>
       </c>
     </row>
@@ -2675,16 +2851,16 @@
       <c r="B27" s="10">
         <v>25</v>
       </c>
-      <c r="C27" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="40">
+      <c r="C27" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="39">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="40">
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="41">
         <v>41000</v>
       </c>
     </row>
@@ -2692,16 +2868,16 @@
       <c r="B28" s="10">
         <v>26</v>
       </c>
-      <c r="C28" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="40">
+      <c r="C28" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="39">
         <v>5.9000000000000004E-2</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="41">
         <v>40000</v>
       </c>
     </row>
@@ -2709,16 +2885,16 @@
       <c r="B29" s="10">
         <v>27</v>
       </c>
-      <c r="C29" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="40">
+      <c r="C29" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="39">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="40">
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="F29" s="42">
+      <c r="F29" s="41">
         <v>44000</v>
       </c>
     </row>
@@ -2726,16 +2902,16 @@
       <c r="B30" s="10">
         <v>28</v>
       </c>
-      <c r="C30" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="40">
+      <c r="C30" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="39">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="40">
         <v>1.6E-2</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="41">
         <v>59000</v>
       </c>
     </row>
@@ -2743,16 +2919,16 @@
       <c r="B31" s="10">
         <v>29</v>
       </c>
-      <c r="C31" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="40">
+      <c r="C31" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="39">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="E31" s="41">
+      <c r="E31" s="40">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="41">
         <v>47000</v>
       </c>
     </row>
@@ -2760,16 +2936,16 @@
       <c r="B32" s="10">
         <v>30</v>
       </c>
-      <c r="C32" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="40">
+      <c r="C32" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="39">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="40">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F32" s="42">
+      <c r="F32" s="41">
         <v>47000</v>
       </c>
     </row>
@@ -2777,16 +2953,16 @@
       <c r="B33" s="10">
         <v>31</v>
       </c>
-      <c r="C33" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="40">
+      <c r="C33" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="39">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="40">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="41">
         <v>45000</v>
       </c>
     </row>
@@ -2794,16 +2970,16 @@
       <c r="B34" s="10">
         <v>32</v>
       </c>
-      <c r="C34" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="40">
+      <c r="C34" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="39">
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="41">
         <v>65000</v>
       </c>
     </row>
@@ -2811,16 +2987,16 @@
       <c r="B35" s="10">
         <v>33</v>
       </c>
-      <c r="C35" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="40">
+      <c r="C35" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="39">
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="41">
         <v>65000</v>
       </c>
     </row>
@@ -2828,16 +3004,16 @@
       <c r="B36" s="10">
         <v>34</v>
       </c>
-      <c r="C36" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="40">
+      <c r="C36" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="39">
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="E36" s="41">
+      <c r="E36" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F36" s="42">
+      <c r="F36" s="41">
         <v>65000</v>
       </c>
     </row>
@@ -2845,16 +3021,16 @@
       <c r="B37" s="10">
         <v>35</v>
       </c>
-      <c r="C37" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="40">
+      <c r="C37" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="39">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="E37" s="41">
+      <c r="E37" s="40">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F37" s="42">
+      <c r="F37" s="41">
         <v>75000</v>
       </c>
     </row>
@@ -2862,16 +3038,16 @@
       <c r="B38" s="10">
         <v>36</v>
       </c>
-      <c r="C38" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="40">
+      <c r="C38" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="39">
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F38" s="42">
+      <c r="F38" s="41">
         <v>65000</v>
       </c>
     </row>
@@ -2879,16 +3055,16 @@
       <c r="B39" s="10">
         <v>37</v>
       </c>
-      <c r="C39" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="40">
+      <c r="C39" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="39">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E39" s="41">
+      <c r="E39" s="40">
         <v>1.6E-2</v>
       </c>
-      <c r="F39" s="42">
+      <c r="F39" s="41">
         <v>59000</v>
       </c>
     </row>
@@ -2896,16 +3072,16 @@
       <c r="B40" s="10">
         <v>38</v>
       </c>
-      <c r="C40" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="40">
+      <c r="C40" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="39">
         <v>3.9E-2</v>
       </c>
-      <c r="E40" s="41">
+      <c r="E40" s="40">
         <v>0.01</v>
       </c>
-      <c r="F40" s="42">
+      <c r="F40" s="41">
         <v>38000</v>
       </c>
     </row>
@@ -2913,16 +3089,16 @@
       <c r="B41" s="10">
         <v>39</v>
       </c>
-      <c r="C41" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="40">
+      <c r="C41" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="39">
         <v>6.2E-2</v>
       </c>
-      <c r="E41" s="41">
+      <c r="E41" s="40">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="F41" s="42">
+      <c r="F41" s="41">
         <v>42000</v>
       </c>
     </row>
@@ -2930,16 +3106,16 @@
       <c r="B42" s="10">
         <v>40</v>
       </c>
-      <c r="C42" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="40">
+      <c r="C42" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="39">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E42" s="41">
+      <c r="E42" s="40">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F42" s="42">
+      <c r="F42" s="41">
         <v>40000</v>
       </c>
     </row>
@@ -2947,16 +3123,16 @@
       <c r="B43" s="10">
         <v>41</v>
       </c>
-      <c r="C43" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" s="40">
+      <c r="C43" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="39">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E43" s="41">
+      <c r="E43" s="40">
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="F43" s="42">
+      <c r="F43" s="41">
         <v>66000</v>
       </c>
     </row>
@@ -2964,16 +3140,16 @@
       <c r="B44" s="10">
         <v>42</v>
       </c>
-      <c r="C44" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="40">
+      <c r="C44" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="39">
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="E44" s="41">
+      <c r="E44" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F44" s="42">
+      <c r="F44" s="41">
         <v>65000</v>
       </c>
     </row>
@@ -2981,16 +3157,16 @@
       <c r="B45" s="10">
         <v>43</v>
       </c>
-      <c r="C45" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" s="40">
+      <c r="C45" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="39">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E45" s="41">
+      <c r="E45" s="40">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F45" s="42">
+      <c r="F45" s="41">
         <v>40000</v>
       </c>
     </row>
@@ -2998,16 +3174,16 @@
       <c r="B46" s="10">
         <v>44</v>
       </c>
-      <c r="C46" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" s="40">
+      <c r="C46" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="39">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E46" s="41">
+      <c r="E46" s="40">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F46" s="42">
+      <c r="F46" s="41">
         <v>50000</v>
       </c>
     </row>
@@ -3015,16 +3191,16 @@
       <c r="B47" s="10">
         <v>45</v>
       </c>
-      <c r="C47" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="40">
+      <c r="C47" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="39">
         <v>1.2E-2</v>
       </c>
-      <c r="E47" s="41">
+      <c r="E47" s="40">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F47" s="42">
+      <c r="F47" s="41">
         <v>37000</v>
       </c>
     </row>
@@ -3032,16 +3208,16 @@
       <c r="B48" s="10">
         <v>46</v>
       </c>
-      <c r="C48" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="D48" s="40">
+      <c r="C48" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="39">
         <v>9.6999999999999989E-2</v>
       </c>
-      <c r="E48" s="41">
+      <c r="E48" s="40">
         <v>0.02</v>
       </c>
-      <c r="F48" s="42">
+      <c r="F48" s="41">
         <v>45000</v>
       </c>
     </row>
@@ -3049,16 +3225,16 @@
       <c r="B49" s="10">
         <v>47</v>
       </c>
-      <c r="C49" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="D49" s="40">
+      <c r="C49" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="39">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E49" s="41">
+      <c r="E49" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F49" s="42">
+      <c r="F49" s="41">
         <v>49000</v>
       </c>
     </row>
@@ -3066,16 +3242,16 @@
       <c r="B50" s="10">
         <v>48</v>
       </c>
-      <c r="C50" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D50" s="40">
+      <c r="C50" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="39">
         <v>8.199999999999999E-2</v>
       </c>
-      <c r="E50" s="41">
+      <c r="E50" s="40">
         <v>0.01</v>
       </c>
-      <c r="F50" s="42">
+      <c r="F50" s="41">
         <v>65000</v>
       </c>
     </row>
@@ -3083,16 +3259,16 @@
       <c r="B51" s="10">
         <v>49</v>
       </c>
-      <c r="C51" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" s="40">
+      <c r="C51" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="39">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E51" s="41">
+      <c r="E51" s="40">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F51" s="42">
+      <c r="F51" s="41">
         <v>40000</v>
       </c>
     </row>
@@ -3100,16 +3276,16 @@
       <c r="B52" s="10">
         <v>50</v>
       </c>
-      <c r="C52" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52" s="40">
+      <c r="C52" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="39">
         <v>2.8999999999999998E-2</v>
       </c>
-      <c r="E52" s="41">
+      <c r="E52" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F52" s="42">
+      <c r="F52" s="41">
         <v>42000</v>
       </c>
     </row>
@@ -3117,16 +3293,16 @@
       <c r="B53" s="10">
         <v>51</v>
       </c>
-      <c r="C53" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="D53" s="40">
+      <c r="C53" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" s="39">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="E53" s="41">
+      <c r="E53" s="40">
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="F53" s="42">
+      <c r="F53" s="41">
         <v>73000</v>
       </c>
     </row>
@@ -3134,16 +3310,16 @@
       <c r="B54" s="10">
         <v>52</v>
       </c>
-      <c r="C54" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54" s="40">
+      <c r="C54" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="39">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E54" s="41">
+      <c r="E54" s="40">
         <v>1.6E-2</v>
       </c>
-      <c r="F54" s="42">
+      <c r="F54" s="41">
         <v>59000</v>
       </c>
     </row>
@@ -3151,16 +3327,16 @@
       <c r="B55" s="10">
         <v>53</v>
       </c>
-      <c r="C55" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="D55" s="40">
+      <c r="C55" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="39">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E55" s="41">
+      <c r="E55" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F55" s="42">
+      <c r="F55" s="41">
         <v>40000</v>
       </c>
     </row>
@@ -3168,16 +3344,16 @@
       <c r="B56" s="10">
         <v>54</v>
       </c>
-      <c r="C56" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D56" s="40">
+      <c r="C56" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="39">
         <v>6.2E-2</v>
       </c>
-      <c r="E56" s="41">
+      <c r="E56" s="40">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="F56" s="42">
+      <c r="F56" s="41">
         <v>42000</v>
       </c>
     </row>
@@ -3185,16 +3361,16 @@
       <c r="B57" s="10">
         <v>55</v>
       </c>
-      <c r="C57" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="D57" s="40">
+      <c r="C57" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="39">
         <v>0.05</v>
       </c>
-      <c r="E57" s="41">
+      <c r="E57" s="40">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F57" s="42">
+      <c r="F57" s="41">
         <v>70000</v>
       </c>
     </row>
@@ -3202,16 +3378,16 @@
       <c r="B58" s="10">
         <v>56</v>
       </c>
-      <c r="C58" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="D58" s="40">
+      <c r="C58" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="39">
         <v>4.7E-2</v>
       </c>
-      <c r="E58" s="41">
+      <c r="E58" s="40">
         <v>1.2E-2</v>
       </c>
-      <c r="F58" s="42">
+      <c r="F58" s="41">
         <v>60000</v>
       </c>
     </row>
@@ -3219,16 +3395,16 @@
       <c r="B59" s="10">
         <v>57</v>
       </c>
-      <c r="C59" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="D59" s="40">
+      <c r="C59" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="39">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E59" s="41">
+      <c r="E59" s="40">
         <v>0.01</v>
       </c>
-      <c r="F59" s="42">
+      <c r="F59" s="41">
         <v>70000</v>
       </c>
     </row>
@@ -3236,16 +3412,16 @@
       <c r="B60" s="10">
         <v>58</v>
       </c>
-      <c r="C60" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="D60" s="40">
+      <c r="C60" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="39">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E60" s="41">
+      <c r="E60" s="40">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="F60" s="42">
+      <c r="F60" s="41">
         <v>40000</v>
       </c>
     </row>
@@ -3253,16 +3429,16 @@
       <c r="B61" s="10">
         <v>59</v>
       </c>
-      <c r="C61" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="D61" s="40">
+      <c r="C61" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" s="39">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E61" s="41">
+      <c r="E61" s="40">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="F61" s="42">
+      <c r="F61" s="41">
         <v>40000</v>
       </c>
     </row>
@@ -3270,16 +3446,16 @@
       <c r="B62" s="10">
         <v>60</v>
       </c>
-      <c r="C62" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="D62" s="40">
+      <c r="C62" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="39">
         <v>9.6999999999999989E-2</v>
       </c>
-      <c r="E62" s="41">
+      <c r="E62" s="40">
         <v>0.02</v>
       </c>
-      <c r="F62" s="42">
+      <c r="F62" s="41">
         <v>45000</v>
       </c>
     </row>
@@ -3287,16 +3463,16 @@
       <c r="B63" s="10">
         <v>61</v>
       </c>
-      <c r="C63" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="D63" s="40">
+      <c r="C63" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="39">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E63" s="41">
+      <c r="E63" s="40">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F63" s="42">
+      <c r="F63" s="41">
         <v>51000</v>
       </c>
     </row>
@@ -3304,16 +3480,16 @@
       <c r="B64" s="10">
         <v>62</v>
       </c>
-      <c r="C64" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D64" s="40">
+      <c r="C64" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" s="39">
         <v>5.2000000000000005E-2</v>
       </c>
-      <c r="E64" s="41">
+      <c r="E64" s="40">
         <v>1.6E-2</v>
       </c>
-      <c r="F64" s="42">
+      <c r="F64" s="41">
         <v>42000</v>
       </c>
     </row>
@@ -3321,16 +3497,16 @@
       <c r="B65" s="10">
         <v>63</v>
       </c>
-      <c r="C65" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="D65" s="40">
+      <c r="C65" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="39">
         <v>3.9E-2</v>
       </c>
-      <c r="E65" s="41">
+      <c r="E65" s="40">
         <v>0.01</v>
       </c>
-      <c r="F65" s="42">
+      <c r="F65" s="41">
         <v>38000</v>
       </c>
     </row>
@@ -3338,16 +3514,16 @@
       <c r="B66" s="10">
         <v>64</v>
       </c>
-      <c r="C66" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="D66" s="40">
+      <c r="C66" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D66" s="39">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E66" s="41">
+      <c r="E66" s="40">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F66" s="42">
+      <c r="F66" s="41">
         <v>64000</v>
       </c>
     </row>
@@ -3355,16 +3531,16 @@
       <c r="B67" s="10">
         <v>65</v>
       </c>
-      <c r="C67" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="D67" s="40">
+      <c r="C67" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67" s="39">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="E67" s="41">
+      <c r="E67" s="40">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="F67" s="42">
+      <c r="F67" s="41">
         <v>40000</v>
       </c>
     </row>
@@ -3372,16 +3548,16 @@
       <c r="B68" s="10">
         <v>66</v>
       </c>
-      <c r="C68" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="D68" s="40">
+      <c r="C68" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68" s="39">
         <v>6.2E-2</v>
       </c>
-      <c r="E68" s="41">
+      <c r="E68" s="40">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="F68" s="42">
+      <c r="F68" s="41">
         <v>42000</v>
       </c>
     </row>
@@ -3389,16 +3565,16 @@
       <c r="B69" s="10">
         <v>67</v>
       </c>
-      <c r="C69" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="D69" s="40">
+      <c r="C69" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D69" s="39">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E69" s="41">
+      <c r="E69" s="40">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="F69" s="42">
+      <c r="F69" s="41">
         <v>40000</v>
       </c>
     </row>
@@ -3406,16 +3582,16 @@
       <c r="B70" s="10">
         <v>68</v>
       </c>
-      <c r="C70" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D70" s="40">
+      <c r="C70" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="39">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E70" s="41">
+      <c r="E70" s="40">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="F70" s="42">
+      <c r="F70" s="41">
         <v>40000</v>
       </c>
     </row>
@@ -3423,16 +3599,16 @@
       <c r="B71" s="10">
         <v>69</v>
       </c>
-      <c r="C71" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D71" s="40">
+      <c r="C71" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D71" s="39">
         <v>6.2E-2</v>
       </c>
-      <c r="E71" s="41">
+      <c r="E71" s="40">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="F71" s="42">
+      <c r="F71" s="41">
         <v>42000</v>
       </c>
     </row>
@@ -3440,16 +3616,16 @@
       <c r="B72" s="10">
         <v>70</v>
       </c>
-      <c r="C72" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="D72" s="40">
+      <c r="C72" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D72" s="39">
         <v>5.2000000000000005E-2</v>
       </c>
-      <c r="E72" s="41">
+      <c r="E72" s="40">
         <v>1.6E-2</v>
       </c>
-      <c r="F72" s="42">
+      <c r="F72" s="41">
         <v>42000</v>
       </c>
     </row>
@@ -3457,16 +3633,16 @@
       <c r="B73" s="10">
         <v>71</v>
       </c>
-      <c r="C73" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="D73" s="40">
+      <c r="C73" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D73" s="39">
         <v>4.7E-2</v>
       </c>
-      <c r="E73" s="41">
+      <c r="E73" s="40">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F73" s="42">
+      <c r="F73" s="41">
         <v>40000</v>
       </c>
     </row>
@@ -3474,16 +3650,16 @@
       <c r="B74" s="10">
         <v>72</v>
       </c>
-      <c r="C74" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D74" s="40">
+      <c r="C74" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D74" s="39">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E74" s="41">
+      <c r="E74" s="40">
         <v>1.3999999999999999E-2</v>
       </c>
-      <c r="F74" s="42">
+      <c r="F74" s="41">
         <v>62000</v>
       </c>
     </row>
@@ -3491,16 +3667,16 @@
       <c r="B75" s="10">
         <v>73</v>
       </c>
-      <c r="C75" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="D75" s="40">
+      <c r="C75" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D75" s="39">
         <v>3.6000000000000004E-2</v>
       </c>
-      <c r="E75" s="41">
+      <c r="E75" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F75" s="42">
+      <c r="F75" s="41">
         <v>50000</v>
       </c>
     </row>
@@ -3508,16 +3684,16 @@
       <c r="B76" s="10">
         <v>74</v>
       </c>
-      <c r="C76" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="D76" s="40">
+      <c r="C76" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D76" s="39">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="E76" s="41">
+      <c r="E76" s="40">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F76" s="42">
+      <c r="F76" s="41">
         <v>48000</v>
       </c>
     </row>
@@ -3525,16 +3701,16 @@
       <c r="B77" s="10">
         <v>75</v>
       </c>
-      <c r="C77" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="D77" s="40">
+      <c r="C77" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77" s="39">
         <v>9.6999999999999989E-2</v>
       </c>
-      <c r="E77" s="41">
+      <c r="E77" s="40">
         <v>0.02</v>
       </c>
-      <c r="F77" s="42">
+      <c r="F77" s="41">
         <v>45000</v>
       </c>
     </row>
@@ -3542,16 +3718,16 @@
       <c r="B78" s="10">
         <v>76</v>
       </c>
-      <c r="C78" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="D78" s="40">
+      <c r="C78" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D78" s="39">
         <v>5.9000000000000004E-2</v>
       </c>
-      <c r="E78" s="41">
+      <c r="E78" s="40">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="F78" s="42">
+      <c r="F78" s="41">
         <v>50000</v>
       </c>
     </row>
@@ -3559,16 +3735,16 @@
       <c r="B79" s="10">
         <v>77</v>
       </c>
-      <c r="C79" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="D79" s="40">
+      <c r="C79" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D79" s="39">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E79" s="41">
+      <c r="E79" s="40">
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="F79" s="42">
+      <c r="F79" s="41">
         <v>44000</v>
       </c>
     </row>
@@ -3576,16 +3752,16 @@
       <c r="B80" s="10">
         <v>78</v>
       </c>
-      <c r="C80" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="D80" s="40">
+      <c r="C80" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D80" s="39">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="E80" s="41">
+      <c r="E80" s="40">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F80" s="42">
+      <c r="F80" s="41">
         <v>54000</v>
       </c>
     </row>
@@ -3593,16 +3769,16 @@
       <c r="B81" s="10">
         <v>79</v>
       </c>
-      <c r="C81" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="D81" s="40">
+      <c r="C81" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D81" s="39">
         <v>3.6000000000000004E-2</v>
       </c>
-      <c r="E81" s="41">
+      <c r="E81" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F81" s="42">
+      <c r="F81" s="41">
         <v>50000</v>
       </c>
     </row>
@@ -3610,16 +3786,16 @@
       <c r="B82" s="10">
         <v>80</v>
       </c>
-      <c r="C82" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="D82" s="40">
+      <c r="C82" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D82" s="39">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="E82" s="41">
+      <c r="E82" s="40">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F82" s="42">
+      <c r="F82" s="41">
         <v>42000</v>
       </c>
     </row>
@@ -3627,16 +3803,16 @@
       <c r="B83" s="10">
         <v>81</v>
       </c>
-      <c r="C83" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="D83" s="40">
+      <c r="C83" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D83" s="39">
         <v>3.9E-2</v>
       </c>
-      <c r="E83" s="41">
+      <c r="E83" s="40">
         <v>0.01</v>
       </c>
-      <c r="F83" s="42">
+      <c r="F83" s="41">
         <v>38000</v>
       </c>
     </row>
@@ -3644,16 +3820,16 @@
       <c r="B84" s="10">
         <v>82</v>
       </c>
-      <c r="C84" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="D84" s="40">
+      <c r="C84" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D84" s="39">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E84" s="41">
+      <c r="E84" s="40">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="F84" s="42">
+      <c r="F84" s="41">
         <v>42000</v>
       </c>
     </row>
@@ -3661,16 +3837,16 @@
       <c r="B85" s="10">
         <v>83</v>
       </c>
-      <c r="C85" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="D85" s="40">
+      <c r="C85" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D85" s="39">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E85" s="41">
+      <c r="E85" s="40">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="F85" s="42">
+      <c r="F85" s="41">
         <v>42000</v>
       </c>
     </row>
@@ -3678,16 +3854,16 @@
       <c r="B86" s="10">
         <v>84</v>
       </c>
-      <c r="C86" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="D86" s="40">
+      <c r="C86" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D86" s="39">
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="E86" s="41">
+      <c r="E86" s="40">
         <v>1.3999999999999999E-2</v>
       </c>
-      <c r="F86" s="42">
+      <c r="F86" s="41">
         <v>38000</v>
       </c>
     </row>
@@ -3695,16 +3871,16 @@
       <c r="B87" s="10">
         <v>85</v>
       </c>
-      <c r="C87" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="D87" s="40">
+      <c r="C87" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D87" s="39">
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="E87" s="41">
+      <c r="E87" s="40">
         <v>1.3999999999999999E-2</v>
       </c>
-      <c r="F87" s="42">
+      <c r="F87" s="41">
         <v>38000</v>
       </c>
     </row>
@@ -3712,16 +3888,16 @@
       <c r="B88" s="10">
         <v>86</v>
       </c>
-      <c r="C88" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="D88" s="40">
+      <c r="C88" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D88" s="39">
         <v>7.2000000000000008E-2</v>
       </c>
-      <c r="E88" s="41">
+      <c r="E88" s="40">
         <v>1.2E-2</v>
       </c>
-      <c r="F88" s="42">
+      <c r="F88" s="41">
         <v>39000</v>
       </c>
     </row>
@@ -3729,16 +3905,16 @@
       <c r="B89" s="10">
         <v>87</v>
       </c>
-      <c r="C89" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="D89" s="40">
+      <c r="C89" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D89" s="39">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E89" s="41">
+      <c r="E89" s="40">
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="F89" s="42">
+      <c r="F89" s="41">
         <v>66000</v>
       </c>
     </row>
@@ -3746,16 +3922,16 @@
       <c r="B90" s="10">
         <v>88</v>
       </c>
-      <c r="C90" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="D90" s="40">
+      <c r="C90" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="D90" s="39">
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="E90" s="41">
+      <c r="E90" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F90" s="42">
+      <c r="F90" s="41">
         <v>65000</v>
       </c>
     </row>
@@ -3763,16 +3939,16 @@
       <c r="B91" s="10">
         <v>89</v>
       </c>
-      <c r="C91" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="D91" s="40">
+      <c r="C91" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D91" s="39">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E91" s="41">
+      <c r="E91" s="40">
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="F91" s="42">
+      <c r="F91" s="41">
         <v>66000</v>
       </c>
     </row>
@@ -3780,16 +3956,16 @@
       <c r="B92" s="10">
         <v>90</v>
       </c>
-      <c r="C92" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="D92" s="40">
+      <c r="C92" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D92" s="39">
         <v>5.4000000000000006E-2</v>
       </c>
-      <c r="E92" s="41">
+      <c r="E92" s="40">
         <v>0.01</v>
       </c>
-      <c r="F92" s="42">
+      <c r="F92" s="41">
         <v>45000</v>
       </c>
     </row>
@@ -3797,16 +3973,16 @@
       <c r="B93" s="10">
         <v>91</v>
       </c>
-      <c r="C93" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="D93" s="40">
+      <c r="C93" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D93" s="39">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="E93" s="41">
+      <c r="E93" s="40">
         <v>2.7000000000000003E-2</v>
       </c>
-      <c r="F93" s="42">
+      <c r="F93" s="41">
         <v>50000</v>
       </c>
     </row>
@@ -3814,16 +3990,16 @@
       <c r="B94" s="10">
         <v>92</v>
       </c>
-      <c r="C94" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="D94" s="40">
+      <c r="C94" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D94" s="39">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E94" s="41">
+      <c r="E94" s="40">
         <v>1.2E-2</v>
       </c>
-      <c r="F94" s="42">
+      <c r="F94" s="41">
         <v>42000</v>
       </c>
     </row>
@@ -3831,16 +4007,16 @@
       <c r="B95" s="10">
         <v>93</v>
       </c>
-      <c r="C95" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="D95" s="40">
+      <c r="C95" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D95" s="39">
         <v>7.2000000000000008E-2</v>
       </c>
-      <c r="E95" s="41">
+      <c r="E95" s="40">
         <v>1.2E-2</v>
       </c>
-      <c r="F95" s="42">
+      <c r="F95" s="41">
         <v>39000</v>
       </c>
     </row>
@@ -3848,16 +4024,16 @@
       <c r="B96" s="10">
         <v>94</v>
       </c>
-      <c r="C96" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="D96" s="40">
+      <c r="C96" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="D96" s="39">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E96" s="41">
+      <c r="E96" s="40">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F96" s="42">
+      <c r="F96" s="41">
         <v>45000</v>
       </c>
     </row>
@@ -3865,16 +4041,16 @@
       <c r="B97" s="10">
         <v>95</v>
       </c>
-      <c r="C97" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="D97" s="40">
+      <c r="C97" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D97" s="39">
         <v>7.8E-2</v>
       </c>
-      <c r="E97" s="41">
+      <c r="E97" s="40">
         <v>1.6E-2</v>
       </c>
-      <c r="F97" s="42">
+      <c r="F97" s="41">
         <v>42000</v>
       </c>
     </row>
@@ -3882,16 +4058,16 @@
       <c r="B98" s="10">
         <v>96</v>
       </c>
-      <c r="C98" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="D98" s="40">
+      <c r="C98" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="D98" s="39">
         <v>8.199999999999999E-2</v>
       </c>
-      <c r="E98" s="41">
+      <c r="E98" s="40">
         <v>0.01</v>
       </c>
-      <c r="F98" s="42">
+      <c r="F98" s="41">
         <v>65000</v>
       </c>
     </row>
@@ -3899,16 +4075,16 @@
       <c r="B99" s="10">
         <v>97</v>
       </c>
-      <c r="C99" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="D99" s="40">
+      <c r="C99" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D99" s="39">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="E99" s="41">
+      <c r="E99" s="40">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F99" s="42">
+      <c r="F99" s="41">
         <v>50000</v>
       </c>
     </row>
@@ -3916,16 +4092,16 @@
       <c r="B100" s="10">
         <v>98</v>
       </c>
-      <c r="C100" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="D100" s="40">
+      <c r="C100" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D100" s="39">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E100" s="41">
+      <c r="E100" s="40">
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="F100" s="42">
+      <c r="F100" s="41">
         <v>66000</v>
       </c>
     </row>
@@ -3933,16 +4109,16 @@
       <c r="B101" s="10">
         <v>99</v>
       </c>
-      <c r="C101" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="D101" s="40">
+      <c r="C101" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D101" s="39">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E101" s="41">
+      <c r="E101" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F101" s="42">
+      <c r="F101" s="41">
         <v>49000</v>
       </c>
     </row>
@@ -3950,16 +4126,16 @@
       <c r="B102" s="10">
         <v>100</v>
       </c>
-      <c r="C102" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="D102" s="40">
+      <c r="C102" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="D102" s="39">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E102" s="41">
+      <c r="E102" s="40">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F102" s="42">
+      <c r="F102" s="41">
         <v>50000</v>
       </c>
     </row>
@@ -3967,16 +4143,16 @@
       <c r="B103" s="10">
         <v>101</v>
       </c>
-      <c r="C103" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="D103" s="40">
+      <c r="C103" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="D103" s="39">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E103" s="41">
+      <c r="E103" s="40">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F103" s="42">
+      <c r="F103" s="41">
         <v>50000</v>
       </c>
     </row>
@@ -3984,16 +4160,16 @@
       <c r="B104" s="10">
         <v>102</v>
       </c>
-      <c r="C104" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="D104" s="40">
+      <c r="C104" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D104" s="39">
         <v>8.199999999999999E-2</v>
       </c>
-      <c r="E104" s="41">
+      <c r="E104" s="40">
         <v>0.01</v>
       </c>
-      <c r="F104" s="42">
+      <c r="F104" s="41">
         <v>65000</v>
       </c>
     </row>
@@ -4001,16 +4177,16 @@
       <c r="B105" s="10">
         <v>103</v>
       </c>
-      <c r="C105" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="D105" s="40">
+      <c r="C105" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="D105" s="39">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E105" s="41">
+      <c r="E105" s="40">
         <v>0.01</v>
       </c>
-      <c r="F105" s="42">
+      <c r="F105" s="41">
         <v>55000</v>
       </c>
     </row>
@@ -4018,16 +4194,16 @@
       <c r="B106" s="10">
         <v>104</v>
       </c>
-      <c r="C106" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="D106" s="40">
+      <c r="C106" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="D106" s="39">
         <v>3.7000000000000005E-2</v>
       </c>
-      <c r="E106" s="41">
+      <c r="E106" s="40">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F106" s="42">
+      <c r="F106" s="41">
         <v>72000</v>
       </c>
     </row>
@@ -4035,16 +4211,16 @@
       <c r="B107" s="10">
         <v>105</v>
       </c>
-      <c r="C107" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="D107" s="40">
+      <c r="C107" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D107" s="39">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E107" s="41">
+      <c r="E107" s="40">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F107" s="42">
+      <c r="F107" s="41">
         <v>40000</v>
       </c>
     </row>
@@ -4052,16 +4228,16 @@
       <c r="B108" s="10">
         <v>106</v>
       </c>
-      <c r="C108" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="D108" s="40">
+      <c r="C108" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="D108" s="39">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E108" s="41">
+      <c r="E108" s="40">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F108" s="42">
+      <c r="F108" s="41">
         <v>51000</v>
       </c>
     </row>
@@ -4069,16 +4245,16 @@
       <c r="B109" s="10">
         <v>107</v>
       </c>
-      <c r="C109" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="D109" s="40">
+      <c r="C109" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D109" s="39">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E109" s="41">
+      <c r="E109" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F109" s="42">
+      <c r="F109" s="41">
         <v>49000</v>
       </c>
     </row>
@@ -4086,16 +4262,16 @@
       <c r="B110" s="10">
         <v>108</v>
       </c>
-      <c r="C110" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="D110" s="40">
+      <c r="C110" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D110" s="39">
         <v>8.199999999999999E-2</v>
       </c>
-      <c r="E110" s="41">
+      <c r="E110" s="40">
         <v>0.01</v>
       </c>
-      <c r="F110" s="42">
+      <c r="F110" s="41">
         <v>65000</v>
       </c>
     </row>
@@ -4103,16 +4279,16 @@
       <c r="B111" s="10">
         <v>109</v>
       </c>
-      <c r="C111" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="D111" s="40">
+      <c r="C111" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="D111" s="39">
         <v>3.9E-2</v>
       </c>
-      <c r="E111" s="41">
+      <c r="E111" s="40">
         <v>1.9E-2</v>
       </c>
-      <c r="F111" s="42">
+      <c r="F111" s="41">
         <v>35000</v>
       </c>
     </row>
@@ -4120,16 +4296,16 @@
       <c r="B112" s="10">
         <v>110</v>
       </c>
-      <c r="C112" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="D112" s="40">
+      <c r="C112" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D112" s="39">
         <v>4.7E-2</v>
       </c>
-      <c r="E112" s="41">
+      <c r="E112" s="40">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F112" s="42">
+      <c r="F112" s="41">
         <v>48000</v>
       </c>
     </row>
@@ -4137,16 +4313,16 @@
       <c r="B113" s="10">
         <v>111</v>
       </c>
-      <c r="C113" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="D113" s="40">
+      <c r="C113" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="D113" s="39">
         <v>5.4000000000000006E-2</v>
       </c>
-      <c r="E113" s="41">
+      <c r="E113" s="40">
         <v>0.01</v>
       </c>
-      <c r="F113" s="42">
+      <c r="F113" s="41">
         <v>45000</v>
       </c>
     </row>
@@ -4154,16 +4330,16 @@
       <c r="B114" s="10">
         <v>112</v>
       </c>
-      <c r="C114" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="D114" s="40">
+      <c r="C114" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="D114" s="39">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E114" s="41">
+      <c r="E114" s="40">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F114" s="42">
+      <c r="F114" s="41">
         <v>40000</v>
       </c>
     </row>
@@ -4171,16 +4347,16 @@
       <c r="B115" s="10">
         <v>113</v>
       </c>
-      <c r="C115" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="D115" s="40">
+      <c r="C115" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="D115" s="39">
         <v>5.2000000000000005E-2</v>
       </c>
-      <c r="E115" s="41">
+      <c r="E115" s="40">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F115" s="42">
+      <c r="F115" s="41">
         <v>48000</v>
       </c>
     </row>
@@ -4188,16 +4364,16 @@
       <c r="B116" s="10">
         <v>114</v>
       </c>
-      <c r="C116" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="D116" s="40">
+      <c r="C116" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D116" s="39">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E116" s="41">
+      <c r="E116" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F116" s="42">
+      <c r="F116" s="41">
         <v>49000</v>
       </c>
     </row>
@@ -4205,16 +4381,16 @@
       <c r="B117" s="10">
         <v>115</v>
       </c>
-      <c r="C117" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="D117" s="40">
+      <c r="C117" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D117" s="39">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E117" s="41">
+      <c r="E117" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F117" s="42">
+      <c r="F117" s="41">
         <v>49000</v>
       </c>
     </row>
@@ -4222,16 +4398,16 @@
       <c r="B118" s="10">
         <v>116</v>
       </c>
-      <c r="C118" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="D118" s="40">
+      <c r="C118" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="D118" s="39">
         <v>0.03</v>
       </c>
-      <c r="E118" s="41">
+      <c r="E118" s="40">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F118" s="42">
+      <c r="F118" s="41">
         <v>57000</v>
       </c>
     </row>
@@ -4239,16 +4415,16 @@
       <c r="B119" s="10">
         <v>117</v>
       </c>
-      <c r="C119" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="D119" s="40">
+      <c r="C119" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="D119" s="39">
         <v>0.09</v>
       </c>
-      <c r="E119" s="41">
+      <c r="E119" s="40">
         <v>2.3E-2</v>
       </c>
-      <c r="F119" s="42">
+      <c r="F119" s="41">
         <v>40000</v>
       </c>
     </row>
@@ -4256,16 +4432,16 @@
       <c r="B120" s="10">
         <v>118</v>
       </c>
-      <c r="C120" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="D120" s="40">
+      <c r="C120" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="D120" s="39">
         <v>6.2E-2</v>
       </c>
-      <c r="E120" s="41">
+      <c r="E120" s="40">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="F120" s="42">
+      <c r="F120" s="41">
         <v>42000</v>
       </c>
     </row>
@@ -4273,16 +4449,16 @@
       <c r="B121" s="10">
         <v>119</v>
       </c>
-      <c r="C121" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="D121" s="40">
+      <c r="C121" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="D121" s="39">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E121" s="41">
+      <c r="E121" s="40">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="F121" s="42">
+      <c r="F121" s="41">
         <v>42000</v>
       </c>
     </row>
@@ -4290,16 +4466,16 @@
       <c r="B122" s="10">
         <v>120</v>
       </c>
-      <c r="C122" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="D122" s="40">
+      <c r="C122" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D122" s="39">
         <v>0.03</v>
       </c>
-      <c r="E122" s="41">
+      <c r="E122" s="40">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F122" s="42">
+      <c r="F122" s="41">
         <v>57000</v>
       </c>
     </row>
@@ -4307,16 +4483,16 @@
       <c r="B123" s="10">
         <v>121</v>
       </c>
-      <c r="C123" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="D123" s="40">
+      <c r="C123" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="D123" s="39">
         <v>0.03</v>
       </c>
-      <c r="E123" s="41">
+      <c r="E123" s="40">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F123" s="42">
+      <c r="F123" s="41">
         <v>57000</v>
       </c>
     </row>
@@ -4324,16 +4500,16 @@
       <c r="B124" s="10">
         <v>122</v>
       </c>
-      <c r="C124" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="D124" s="40">
+      <c r="C124" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="D124" s="39">
         <v>7.8E-2</v>
       </c>
-      <c r="E124" s="41">
+      <c r="E124" s="40">
         <v>1.6E-2</v>
       </c>
-      <c r="F124" s="42">
+      <c r="F124" s="41">
         <v>42000</v>
       </c>
     </row>
@@ -4341,16 +4517,16 @@
       <c r="B125" s="10">
         <v>123</v>
       </c>
-      <c r="C125" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="D125" s="40">
+      <c r="C125" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="D125" s="39">
         <v>4.7E-2</v>
       </c>
-      <c r="E125" s="41">
+      <c r="E125" s="40">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F125" s="42">
+      <c r="F125" s="41">
         <v>48000</v>
       </c>
     </row>
@@ -4358,16 +4534,16 @@
       <c r="B126" s="10">
         <v>124</v>
       </c>
-      <c r="C126" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="D126" s="40">
+      <c r="C126" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="D126" s="39">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E126" s="41">
+      <c r="E126" s="40">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="F126" s="42">
+      <c r="F126" s="41">
         <v>42000</v>
       </c>
     </row>
@@ -4375,16 +4551,16 @@
       <c r="B127" s="10">
         <v>125</v>
       </c>
-      <c r="C127" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="D127" s="40">
+      <c r="C127" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="D127" s="39">
         <v>4.7E-2</v>
       </c>
-      <c r="E127" s="41">
+      <c r="E127" s="40">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F127" s="42">
+      <c r="F127" s="41">
         <v>48000</v>
       </c>
     </row>
@@ -4392,16 +4568,16 @@
       <c r="B128" s="10">
         <v>126</v>
       </c>
-      <c r="C128" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="D128" s="40">
+      <c r="C128" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="D128" s="39">
         <v>4.7E-2</v>
       </c>
-      <c r="E128" s="41">
+      <c r="E128" s="40">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F128" s="42">
+      <c r="F128" s="41">
         <v>48000</v>
       </c>
     </row>
@@ -4409,16 +4585,16 @@
       <c r="B129" s="10">
         <v>127</v>
       </c>
-      <c r="C129" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="D129" s="40">
+      <c r="C129" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D129" s="39">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E129" s="41">
+      <c r="E129" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F129" s="42">
+      <c r="F129" s="41">
         <v>49000</v>
       </c>
     </row>
@@ -4426,16 +4602,16 @@
       <c r="B130" s="10">
         <v>128</v>
       </c>
-      <c r="C130" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="D130" s="40">
+      <c r="C130" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D130" s="39">
         <v>5.9000000000000004E-2</v>
       </c>
-      <c r="E130" s="41">
+      <c r="E130" s="40">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="F130" s="42">
+      <c r="F130" s="41">
         <v>50000</v>
       </c>
     </row>
@@ -4443,16 +4619,16 @@
       <c r="B131" s="10">
         <v>129</v>
       </c>
-      <c r="C131" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="D131" s="40">
+      <c r="C131" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D131" s="39">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E131" s="41">
+      <c r="E131" s="40">
         <v>0.01</v>
       </c>
-      <c r="F131" s="42">
+      <c r="F131" s="41">
         <v>55000</v>
       </c>
     </row>
@@ -4460,16 +4636,16 @@
       <c r="B132" s="10">
         <v>130</v>
       </c>
-      <c r="C132" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="D132" s="40">
+      <c r="C132" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D132" s="39">
         <v>5.9000000000000004E-2</v>
       </c>
-      <c r="E132" s="41">
+      <c r="E132" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F132" s="42">
+      <c r="F132" s="41">
         <v>40000</v>
       </c>
     </row>
@@ -4477,16 +4653,16 @@
       <c r="B133" s="10">
         <v>131</v>
       </c>
-      <c r="C133" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D133" s="40">
+      <c r="C133" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="D133" s="39">
         <v>0.09</v>
       </c>
-      <c r="E133" s="41">
+      <c r="E133" s="40">
         <v>2.3E-2</v>
       </c>
-      <c r="F133" s="42">
+      <c r="F133" s="41">
         <v>45000</v>
       </c>
     </row>
@@ -4494,16 +4670,16 @@
       <c r="B134" s="10">
         <v>132</v>
       </c>
-      <c r="C134" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D134" s="40">
+      <c r="C134" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="D134" s="39">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E134" s="41">
+      <c r="E134" s="40">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F134" s="42">
+      <c r="F134" s="41">
         <v>51000</v>
       </c>
     </row>
@@ -4511,16 +4687,16 @@
       <c r="B135" s="10">
         <v>133</v>
       </c>
-      <c r="C135" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="D135" s="40">
+      <c r="C135" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="D135" s="39">
         <v>0.09</v>
       </c>
-      <c r="E135" s="41">
+      <c r="E135" s="40">
         <v>2.3E-2</v>
       </c>
-      <c r="F135" s="42">
+      <c r="F135" s="41">
         <v>45000</v>
       </c>
     </row>
@@ -4528,16 +4704,16 @@
       <c r="B136" s="10">
         <v>134</v>
       </c>
-      <c r="C136" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="D136" s="40">
+      <c r="C136" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="D136" s="39">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E136" s="41">
+      <c r="E136" s="40">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F136" s="42">
+      <c r="F136" s="41">
         <v>64000</v>
       </c>
     </row>
@@ -4545,16 +4721,16 @@
       <c r="B137" s="10">
         <v>135</v>
       </c>
-      <c r="C137" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="D137" s="40">
+      <c r="C137" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="D137" s="39">
         <v>5.7999999999999996E-2</v>
       </c>
-      <c r="E137" s="41">
+      <c r="E137" s="40">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="F137" s="42">
+      <c r="F137" s="41">
         <v>58000</v>
       </c>
     </row>
@@ -4562,16 +4738,16 @@
       <c r="B138" s="10">
         <v>136</v>
       </c>
-      <c r="C138" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="D138" s="40">
+      <c r="C138" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D138" s="39">
         <v>3.9E-2</v>
       </c>
-      <c r="E138" s="41">
+      <c r="E138" s="40">
         <v>1.9E-2</v>
       </c>
-      <c r="F138" s="42">
+      <c r="F138" s="41">
         <v>35000</v>
       </c>
     </row>
@@ -4579,16 +4755,16 @@
       <c r="B139" s="10">
         <v>137</v>
       </c>
-      <c r="C139" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="D139" s="40">
+      <c r="C139" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D139" s="39">
         <v>7.8E-2</v>
       </c>
-      <c r="E139" s="41">
+      <c r="E139" s="40">
         <v>1.6E-2</v>
       </c>
-      <c r="F139" s="42">
+      <c r="F139" s="41">
         <v>42000</v>
       </c>
     </row>
@@ -4596,16 +4772,16 @@
       <c r="B140" s="10">
         <v>138</v>
       </c>
-      <c r="C140" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="D140" s="40">
+      <c r="C140" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D140" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E140" s="41">
+      <c r="E140" s="40">
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="F140" s="42">
+      <c r="F140" s="41">
         <v>42000</v>
       </c>
     </row>
@@ -4613,16 +4789,16 @@
       <c r="B141" s="10">
         <v>139</v>
       </c>
-      <c r="C141" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="D141" s="40">
+      <c r="C141" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D141" s="39">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="E141" s="41">
+      <c r="E141" s="40">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F141" s="42">
+      <c r="F141" s="41">
         <v>50000</v>
       </c>
     </row>
@@ -4630,16 +4806,16 @@
       <c r="B142" s="10">
         <v>140</v>
       </c>
-      <c r="C142" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="D142" s="40">
+      <c r="C142" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D142" s="39">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="E142" s="41">
+      <c r="E142" s="40">
         <v>1.3999999999999999E-2</v>
       </c>
-      <c r="F142" s="42">
+      <c r="F142" s="41">
         <v>42000</v>
       </c>
     </row>
@@ -4647,16 +4823,16 @@
       <c r="B143" s="10">
         <v>141</v>
       </c>
-      <c r="C143" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="D143" s="40">
+      <c r="C143" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D143" s="39">
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="E143" s="41">
+      <c r="E143" s="40">
         <v>1.3999999999999999E-2</v>
       </c>
-      <c r="F143" s="42">
+      <c r="F143" s="41">
         <v>38000</v>
       </c>
     </row>
@@ -4664,16 +4840,16 @@
       <c r="B144" s="10">
         <v>142</v>
       </c>
-      <c r="C144" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="D144" s="40">
+      <c r="C144" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D144" s="39">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E144" s="41">
+      <c r="E144" s="40">
         <v>1.2E-2</v>
       </c>
-      <c r="F144" s="42">
+      <c r="F144" s="41">
         <v>42000</v>
       </c>
     </row>
@@ -4681,16 +4857,16 @@
       <c r="B145" s="10">
         <v>143</v>
       </c>
-      <c r="C145" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="D145" s="40">
+      <c r="C145" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D145" s="39">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E145" s="41">
+      <c r="E145" s="40">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="F145" s="42">
+      <c r="F145" s="41">
         <v>42000</v>
       </c>
     </row>
@@ -4698,16 +4874,16 @@
       <c r="B146" s="10">
         <v>144</v>
       </c>
-      <c r="C146" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="D146" s="40">
+      <c r="C146" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="D146" s="39">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E146" s="41">
+      <c r="E146" s="40">
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="F146" s="42">
+      <c r="F146" s="41">
         <v>66000</v>
       </c>
     </row>
@@ -4715,16 +4891,16 @@
       <c r="B147" s="10">
         <v>145</v>
       </c>
-      <c r="C147" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="D147" s="40">
+      <c r="C147" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="D147" s="39">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E147" s="41">
+      <c r="E147" s="40">
         <v>0.01</v>
       </c>
-      <c r="F147" s="42">
+      <c r="F147" s="41">
         <v>70000</v>
       </c>
     </row>
@@ -4732,16 +4908,16 @@
       <c r="B148" s="10">
         <v>146</v>
       </c>
-      <c r="C148" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="D148" s="40">
+      <c r="C148" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="D148" s="39">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E148" s="41">
+      <c r="E148" s="40">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F148" s="42">
+      <c r="F148" s="41">
         <v>40000</v>
       </c>
     </row>
@@ -4749,16 +4925,16 @@
       <c r="B149" s="10">
         <v>147</v>
       </c>
-      <c r="C149" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="D149" s="40">
+      <c r="C149" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="D149" s="39">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E149" s="41">
+      <c r="E149" s="40">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F149" s="42">
+      <c r="F149" s="41">
         <v>40000</v>
       </c>
     </row>
@@ -4766,16 +4942,16 @@
       <c r="B150" s="10">
         <v>148</v>
       </c>
-      <c r="C150" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="D150" s="40">
+      <c r="C150" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="D150" s="39">
         <v>3.9E-2</v>
       </c>
-      <c r="E150" s="41">
+      <c r="E150" s="40">
         <v>1.9E-2</v>
       </c>
-      <c r="F150" s="42">
+      <c r="F150" s="41">
         <v>35000</v>
       </c>
     </row>
@@ -4783,16 +4959,16 @@
       <c r="B151" s="10">
         <v>149</v>
       </c>
-      <c r="C151" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="D151" s="40">
+      <c r="C151" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="D151" s="39">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E151" s="41">
+      <c r="E151" s="40">
         <v>1.6E-2</v>
       </c>
-      <c r="F151" s="42">
+      <c r="F151" s="41">
         <v>59000</v>
       </c>
     </row>
@@ -4800,16 +4976,16 @@
       <c r="B152" s="10">
         <v>150</v>
       </c>
-      <c r="C152" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="D152" s="40">
+      <c r="C152" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="D152" s="39">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E152" s="41">
+      <c r="E152" s="40">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="F152" s="42">
+      <c r="F152" s="41">
         <v>42000</v>
       </c>
     </row>
@@ -4817,16 +4993,16 @@
       <c r="B153" s="10">
         <v>151</v>
       </c>
-      <c r="C153" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="D153" s="40">
+      <c r="C153" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="D153" s="39">
         <v>0.09</v>
       </c>
-      <c r="E153" s="41">
+      <c r="E153" s="40">
         <v>2.3E-2</v>
       </c>
-      <c r="F153" s="42">
+      <c r="F153" s="41">
         <v>40000</v>
       </c>
     </row>
@@ -4834,16 +5010,16 @@
       <c r="B154" s="10">
         <v>152</v>
       </c>
-      <c r="C154" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="D154" s="40">
+      <c r="C154" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D154" s="39">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E154" s="41">
+      <c r="E154" s="40">
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="F154" s="42">
+      <c r="F154" s="41">
         <v>41000</v>
       </c>
     </row>
@@ -4851,16 +5027,16 @@
       <c r="B155" s="10">
         <v>153</v>
       </c>
-      <c r="C155" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D155" s="40">
+      <c r="C155" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="D155" s="39">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E155" s="41">
+      <c r="E155" s="40">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="F155" s="42">
+      <c r="F155" s="41">
         <v>40000</v>
       </c>
     </row>
@@ -4882,130 +5058,274 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3" s="7">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7">
+        <v>25</v>
+      </c>
+      <c r="E4" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7">
+        <v>40</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="7">
+        <v>150</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="7">
+        <v>300</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7">
         <v>100</v>
       </c>
-      <c r="D3" s="10">
+      <c r="E11" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="7">
+      <c r="D12" s="7">
         <v>25</v>
       </c>
-      <c r="D4" s="10">
+      <c r="E12" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="7">
+      <c r="D13" s="7">
         <v>25</v>
       </c>
-      <c r="D5" s="10">
+      <c r="E13" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="7">
+      <c r="D14" s="7">
         <v>20</v>
       </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="7">
+      <c r="D15" s="7">
         <v>150</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="7">
+      <c r="D16" s="7">
         <v>150</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="7">
+      <c r="D17" s="7">
         <v>300</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="7">
+      <c r="D18" s="7">
         <v>1000</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E10" xr:uid="{9E905705-5702-43B9-B10E-FBFFBDC727FD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F18" xr:uid="{9E905705-5702-43B9-B10E-FBFFBDC727FD}">
       <formula1>EventTypes</formula1>
     </dataValidation>
   </dataValidations>
@@ -6357,623 +6677,851 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="23">
         <v>43453</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="23">
+        <v>43453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="43" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>0</v>
       </c>
       <c r="B4" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>1</v>
       </c>
       <c r="B5" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>2</v>
       </c>
       <c r="B6" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>3</v>
       </c>
       <c r="B7" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>4</v>
       </c>
       <c r="B8" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>5</v>
       </c>
       <c r="B9" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>6</v>
       </c>
       <c r="B10" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>7</v>
       </c>
       <c r="B11" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>8</v>
       </c>
       <c r="B12" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>9</v>
       </c>
       <c r="B13" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>10</v>
       </c>
       <c r="B14" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>11</v>
       </c>
       <c r="B15" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>12</v>
       </c>
       <c r="B16" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>13</v>
       </c>
       <c r="B17" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>14</v>
       </c>
       <c r="B18" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>15</v>
       </c>
       <c r="B19" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>16</v>
       </c>
       <c r="B20" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>17</v>
       </c>
       <c r="B21" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>18</v>
       </c>
       <c r="B22" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>19</v>
       </c>
       <c r="B23" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>20</v>
       </c>
       <c r="B24" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>21</v>
       </c>
       <c r="B25" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>22</v>
       </c>
       <c r="B26" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>23</v>
       </c>
       <c r="B27" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>24</v>
       </c>
       <c r="B28" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>25</v>
       </c>
       <c r="B29" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>26</v>
       </c>
       <c r="B30" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>27</v>
       </c>
       <c r="B31" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>28</v>
       </c>
       <c r="B32" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>29</v>
       </c>
       <c r="B33" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>30</v>
       </c>
       <c r="B34" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>31</v>
       </c>
       <c r="B35" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>32</v>
       </c>
       <c r="B36" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>33</v>
       </c>
       <c r="B37" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>34</v>
       </c>
       <c r="B38" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>35</v>
       </c>
       <c r="B39" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>36</v>
       </c>
       <c r="B40" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>37</v>
       </c>
       <c r="B41" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>38</v>
       </c>
       <c r="B42" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>39</v>
       </c>
       <c r="B43" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>40</v>
       </c>
       <c r="B44" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>41</v>
       </c>
       <c r="B45" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>42</v>
       </c>
       <c r="B46" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>43</v>
       </c>
       <c r="B47" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>44</v>
       </c>
       <c r="B48" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>45</v>
       </c>
       <c r="B49" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>46</v>
       </c>
       <c r="B50" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>47</v>
       </c>
       <c r="B51" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <v>48</v>
       </c>
       <c r="B52" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>49</v>
       </c>
       <c r="B53" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>50</v>
       </c>
       <c r="B54" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>51</v>
       </c>
       <c r="B55" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>52</v>
       </c>
       <c r="B56" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>53</v>
       </c>
       <c r="B57" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>54</v>
       </c>
       <c r="B58" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
         <v>55</v>
       </c>
       <c r="B59" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
         <v>56</v>
       </c>
       <c r="B60" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>57</v>
       </c>
       <c r="B61" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
         <v>58</v>
       </c>
       <c r="B62" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
         <v>59</v>
       </c>
       <c r="B63" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>60</v>
       </c>
       <c r="B64" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
         <v>61</v>
       </c>
       <c r="B65" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
         <v>62</v>
       </c>
       <c r="B66" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
         <v>63</v>
       </c>
       <c r="B67" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
         <v>64</v>
       </c>
       <c r="B68" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
         <v>65</v>
       </c>
       <c r="B69" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
         <v>66</v>
       </c>
       <c r="B70" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
         <v>67</v>
       </c>
       <c r="B71" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
         <v>68</v>
       </c>
       <c r="B72" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="17">
         <v>69</v>
       </c>
       <c r="B73" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>70</v>
       </c>
       <c r="B74" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="17">
         <v>71</v>
       </c>
       <c r="B75" s="25">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="18">
         <v>72</v>
       </c>
       <c r="B76" s="25">
         <v>2.35E-2</v>
+      </c>
+      <c r="C76" s="25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/EduSafe.Core.Tests/Resources/EduSafe-Website-For-Profit-Scenario-Testing-Small.xlsx
+++ b/EduSafe.Core.Tests/Resources/EduSafe-Website-For-Profit-Scenario-Testing-Small.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew M\edusafe\EduSafe.Core.Tests\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BABED41-1DFB-4BCF-87C5-AE3799DD1B80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940AE677-D70E-4657-95C5-169E8397745B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="765" windowWidth="16080" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="30" windowWidth="9885" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'NCES Data By Major'!$C$2:$F$155</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Scenarios!$B$2:$Z$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Scenarios!$B$2:$AB$12</definedName>
     <definedName name="Assumptions_TargetEnd_Scenario2">'[1]Assumptions - Dropouts'!$F$4</definedName>
     <definedName name="Assumptions_TargetEnd_Scenario3">'[1]Assumptions - Dropouts'!$F$5</definedName>
     <definedName name="Assumptions_TargetEnd_Scenario4">'[1]Assumptions - Dropouts'!$F$6</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="232">
   <si>
     <t>Scenario</t>
   </si>
@@ -744,6 +744,12 @@
   </si>
   <si>
     <t>Margin</t>
+  </si>
+  <si>
+    <t>WarrantyLagMonths</t>
+  </si>
+  <si>
+    <t>WarrantyRepayMonths</t>
   </si>
 </sst>
 </file>
@@ -937,7 +943,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1063,6 +1069,9 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1460,14 +1469,14 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="B2:Z12"/>
+  <dimension ref="B2:AB12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C8" sqref="C8"/>
       <selection pane="topRight" activeCell="C8" sqref="C8"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,13 +1502,15 @@
     <col min="19" max="19" width="23.140625" customWidth="1"/>
     <col min="20" max="20" width="17.140625" customWidth="1"/>
     <col min="21" max="21" width="24.42578125" customWidth="1"/>
-    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.28515625" customWidth="1"/>
+    <col min="23" max="23" width="22.5703125" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>20</v>
       </c>
@@ -1560,23 +1571,29 @@
       <c r="U2" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="W2" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="X2" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="27" t="s">
+      <c r="Z2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
         <v>1</v>
       </c>
@@ -1641,23 +1658,29 @@
       <c r="U3" s="28">
         <v>0</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="28">
+        <v>0</v>
+      </c>
+      <c r="W3" s="28">
+        <v>0</v>
+      </c>
+      <c r="X3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="Y3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="X3" s="28">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="8">
+      <c r="Z3" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="8">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
         <f>B3+1</f>
         <v>2</v>
@@ -1723,23 +1746,29 @@
       <c r="U4" s="28">
         <v>0</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="V4" s="28">
+        <v>0</v>
+      </c>
+      <c r="W4" s="28">
+        <v>0</v>
+      </c>
+      <c r="X4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="Y4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="X4" s="28">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="8">
+      <c r="Z4" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="8">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <f t="shared" ref="B5:B12" si="4">B4+1</f>
         <v>3</v>
@@ -1805,23 +1834,29 @@
       <c r="U5" s="28">
         <v>0</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="V5" s="28">
+        <v>0</v>
+      </c>
+      <c r="W5" s="28">
+        <v>0</v>
+      </c>
+      <c r="X5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="W5" s="15" t="s">
+      <c r="Y5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="X5" s="28">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="8">
+      <c r="Z5" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="8">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -1887,23 +1922,29 @@
       <c r="U6" s="28">
         <v>0</v>
       </c>
-      <c r="V6" s="15" t="s">
+      <c r="V6" s="28">
+        <v>0</v>
+      </c>
+      <c r="W6" s="28">
+        <v>0</v>
+      </c>
+      <c r="X6" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="W6" s="15" t="s">
+      <c r="Y6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="X6" s="28">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="8">
+      <c r="Z6" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="8">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -1969,23 +2010,29 @@
       <c r="U7" s="28">
         <v>0</v>
       </c>
-      <c r="V7" s="15" t="s">
+      <c r="V7" s="28">
+        <v>0</v>
+      </c>
+      <c r="W7" s="28">
+        <v>0</v>
+      </c>
+      <c r="X7" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="W7" s="15" t="s">
+      <c r="Y7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="X7" s="28">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="8">
+      <c r="Z7" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="8">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -2051,23 +2098,29 @@
       <c r="U8" s="28">
         <v>0</v>
       </c>
-      <c r="V8" s="15" t="s">
+      <c r="V8" s="28">
+        <v>0</v>
+      </c>
+      <c r="W8" s="28">
+        <v>0</v>
+      </c>
+      <c r="X8" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="W8" s="15" t="s">
+      <c r="Y8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="X8" s="28">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="8">
+      <c r="Z8" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="8">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B9" s="44">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -2131,23 +2184,29 @@
       <c r="U9" s="54">
         <v>12</v>
       </c>
-      <c r="V9" s="55" t="s">
+      <c r="V9" s="54">
+        <v>0</v>
+      </c>
+      <c r="W9" s="54">
+        <v>0</v>
+      </c>
+      <c r="X9" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="W9" s="55" t="s">
+      <c r="Y9" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="X9" s="54">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="56">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="57">
+      <c r="Z9" s="54">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="56">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="57">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -2156,80 +2215,84 @@
         <v>64</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>228</v>
       </c>
       <c r="F10" s="42">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G10" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H10" s="42">
         <v>0.25</v>
       </c>
       <c r="I10" s="42">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="J10" s="42">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K10" s="29">
-        <v>14.5079231933478</v>
+        <v>15</v>
       </c>
       <c r="L10" s="30">
-        <v>4.4493882091212456</v>
+        <v>10</v>
       </c>
       <c r="M10" s="29">
-        <v>1.8745783110559984</v>
+        <v>5</v>
       </c>
       <c r="N10" s="31">
         <f t="shared" si="5"/>
-        <v>79.168110286474956</v>
+        <v>70</v>
       </c>
       <c r="O10" s="9">
         <f t="shared" si="6"/>
-        <v>10.231889713525042</v>
+        <v>21</v>
       </c>
       <c r="P10" s="2">
         <v>0</v>
       </c>
       <c r="Q10" s="32">
-        <f>MIN(('NCES Data By Major'!D10+'NCES Data By Major'!E10)*100,
-100-(N10+P10+G10))</f>
-        <v>5.6000000000000005</v>
+        <v>9</v>
       </c>
       <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="28">
+        <v>0</v>
+      </c>
+      <c r="T10" s="28">
+        <v>3078.0607400833542</v>
+      </c>
+      <c r="U10" s="28">
+        <v>12</v>
+      </c>
+      <c r="V10" s="28">
+        <v>6</v>
+      </c>
+      <c r="W10" s="28">
+        <v>36</v>
+      </c>
+      <c r="X10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="S10" s="28">
-        <v>10250</v>
-      </c>
-      <c r="T10" s="28">
-        <v>0</v>
-      </c>
-      <c r="U10" s="28">
-        <v>0</v>
-      </c>
-      <c r="V10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="W10" s="15" t="s">
+      <c r="Y10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="X10" s="28">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="8">
+      <c r="Z10" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="8">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -2295,23 +2358,29 @@
       <c r="U11" s="28">
         <v>0</v>
       </c>
-      <c r="V11" s="15" t="s">
+      <c r="V11" s="28">
+        <v>0</v>
+      </c>
+      <c r="W11" s="28">
+        <v>0</v>
+      </c>
+      <c r="X11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="W11" s="15" t="s">
+      <c r="Y11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="X11" s="28">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="8">
+      <c r="Z11" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="8">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -2377,26 +2446,32 @@
       <c r="U12" s="28">
         <v>0</v>
       </c>
-      <c r="V12" s="15" t="s">
+      <c r="V12" s="28">
+        <v>0</v>
+      </c>
+      <c r="W12" s="28">
+        <v>0</v>
+      </c>
+      <c r="X12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="W12" s="15" t="s">
+      <c r="Y12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="X12" s="28">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="8">
+      <c r="Z12" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="8">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:Z12" xr:uid="{41D0623F-35E4-467D-8335-5335D24492F3}"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W12" xr:uid="{3EE6BC6F-6AD2-4260-AAC6-BB0AE485DC9E}">
+  <autoFilter ref="B2:AB12" xr:uid="{41D0623F-35E4-467D-8335-5335D24492F3}"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y12" xr:uid="{3EE6BC6F-6AD2-4260-AAC6-BB0AE485DC9E}">
       <formula1>InterestRateTypes</formula1>
     </dataValidation>
   </dataValidations>
@@ -5341,7 +5416,7 @@
   <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EduSafe.Core.Tests/Resources/EduSafe-Website-For-Profit-Scenario-Testing-Small.xlsx
+++ b/EduSafe.Core.Tests/Resources/EduSafe-Website-For-Profit-Scenario-Testing-Small.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew M\edusafe\EduSafe.Core.Tests\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940AE677-D70E-4657-95C5-169E8397745B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410DC2E9-39E7-41FD-9C11-ED29FB1B29D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="30" windowWidth="9885" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="233">
   <si>
     <t>Scenario</t>
   </si>
@@ -750,6 +750,9 @@
   </si>
   <si>
     <t>WarrantyRepayMonths</t>
+  </si>
+  <si>
+    <t>WarrantyOnly</t>
   </si>
 </sst>
 </file>
@@ -814,7 +817,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,8 +836,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -937,13 +946,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1072,6 +1103,54 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1472,11 +1551,11 @@
   <dimension ref="B2:AB12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C8" sqref="C8"/>
       <selection pane="topRight" activeCell="C8" sqref="C8"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2207,177 +2286,175 @@
       </c>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
+      <c r="B10" s="63">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="F10" s="42">
+      <c r="E10" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="65">
         <v>0.15</v>
       </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="42">
+      <c r="G10" s="66">
+        <v>0</v>
+      </c>
+      <c r="H10" s="65">
+        <v>0</v>
+      </c>
+      <c r="I10" s="65">
         <v>0.25</v>
       </c>
-      <c r="I10" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="J10" s="42">
-        <v>0</v>
-      </c>
-      <c r="K10" s="29">
+      <c r="J10" s="65">
+        <v>0</v>
+      </c>
+      <c r="K10" s="67">
         <v>15</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="68">
         <v>10</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="67">
         <v>5</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="51">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="52">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="32">
+      <c r="P10" s="66">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="53">
         <v>9</v>
       </c>
-      <c r="R10" s="2">
-        <v>0</v>
-      </c>
-      <c r="S10" s="28">
-        <v>0</v>
-      </c>
-      <c r="T10" s="28">
+      <c r="R10" s="66">
+        <v>0</v>
+      </c>
+      <c r="S10" s="54">
+        <v>0</v>
+      </c>
+      <c r="T10" s="54">
         <v>3078.0607400833542</v>
       </c>
-      <c r="U10" s="28">
+      <c r="U10" s="54">
         <v>12</v>
       </c>
-      <c r="V10" s="28">
+      <c r="V10" s="54">
         <v>6</v>
       </c>
-      <c r="W10" s="28">
+      <c r="W10" s="54">
         <v>36</v>
       </c>
-      <c r="X10" s="15" t="s">
+      <c r="X10" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="Y10" s="15" t="s">
+      <c r="Y10" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Z10" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="8">
+      <c r="Z10" s="54">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="75">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="76">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
+      <c r="B11" s="69">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="F11" s="42">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>5</v>
-      </c>
-      <c r="H11" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I11" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="J11" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="K11" s="29">
-        <v>14.5079231933478</v>
-      </c>
-      <c r="L11" s="30">
-        <v>4.4493882091212456</v>
-      </c>
-      <c r="M11" s="29">
-        <v>1.8745783110559984</v>
-      </c>
-      <c r="N11" s="31">
+      <c r="D11" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="70" t="s">
+        <v>232</v>
+      </c>
+      <c r="F11" s="71">
+        <v>0.15</v>
+      </c>
+      <c r="G11" s="72">
+        <v>0</v>
+      </c>
+      <c r="H11" s="71">
+        <v>0</v>
+      </c>
+      <c r="I11" s="71">
+        <v>0</v>
+      </c>
+      <c r="J11" s="71">
+        <v>0</v>
+      </c>
+      <c r="K11" s="73">
+        <v>50.354716363739897</v>
+      </c>
+      <c r="L11" s="74">
+        <v>0</v>
+      </c>
+      <c r="M11" s="73">
+        <v>0</v>
+      </c>
+      <c r="N11" s="59">
         <f t="shared" si="5"/>
-        <v>79.168110286474956</v>
-      </c>
-      <c r="O11" s="9">
+        <v>49.645283636260103</v>
+      </c>
+      <c r="O11" s="60">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="32">
-        <f>MIN(('NCES Data By Major'!D11+'NCES Data By Major'!E11)*100,
-100-(N11+P11+G11))</f>
-        <v>15.831889713525044</v>
-      </c>
-      <c r="R11" s="2">
+      <c r="P11" s="72">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="61">
+        <v>50.354716363739897</v>
+      </c>
+      <c r="R11" s="72">
+        <v>0</v>
+      </c>
+      <c r="S11" s="62">
+        <v>0</v>
+      </c>
+      <c r="T11" s="62">
+        <v>3078.0607400833542</v>
+      </c>
+      <c r="U11" s="62">
+        <v>24</v>
+      </c>
+      <c r="V11" s="62">
+        <v>6</v>
+      </c>
+      <c r="W11" s="62">
+        <v>36</v>
+      </c>
+      <c r="X11" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="28">
-        <v>12500</v>
-      </c>
-      <c r="T11" s="28">
-        <v>0</v>
-      </c>
-      <c r="U11" s="28">
-        <v>0</v>
-      </c>
-      <c r="V11" s="28">
-        <v>0</v>
-      </c>
-      <c r="W11" s="28">
-        <v>0</v>
-      </c>
-      <c r="X11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y11" s="15" t="s">
+      <c r="Y11" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="Z11" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>72</v>
+      <c r="Z11" s="62">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="77">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="78">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.25">
@@ -2470,7 +2547,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:AB12" xr:uid="{41D0623F-35E4-467D-8335-5335D24492F3}"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y12" xr:uid="{3EE6BC6F-6AD2-4260-AAC6-BB0AE485DC9E}">
       <formula1>InterestRateTypes</formula1>
     </dataValidation>
@@ -5133,10 +5210,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:F18"/>
+  <dimension ref="B2:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5398,9 +5475,80 @@
         <v>40</v>
       </c>
     </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="7">
+        <v>25</v>
+      </c>
+      <c r="E19" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7">
+        <v>25</v>
+      </c>
+      <c r="E20" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="7">
+        <v>10</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="7">
+        <v>40</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F18" xr:uid="{9E905705-5702-43B9-B10E-FBFFBDC727FD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F23" xr:uid="{9E905705-5702-43B9-B10E-FBFFBDC727FD}">
       <formula1>EventTypes</formula1>
     </dataValidation>
   </dataValidations>

--- a/EduSafe.Core.Tests/Resources/EduSafe-Website-For-Profit-Scenario-Testing-Small.xlsx
+++ b/EduSafe.Core.Tests/Resources/EduSafe-Website-For-Profit-Scenario-Testing-Small.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew M\edusafe\EduSafe.Core.Tests\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410DC2E9-39E7-41FD-9C11-ED29FB1B29D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CDCF69-459C-48B2-9758-6C45BFDE9509}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="235">
   <si>
     <t>Scenario</t>
   </si>
@@ -753,6 +753,12 @@
   </si>
   <si>
     <t>WarrantyOnly</t>
+  </si>
+  <si>
+    <t>EndingPeriod</t>
+  </si>
+  <si>
+    <t>NoDropOutRepay</t>
   </si>
 </sst>
 </file>
@@ -1551,11 +1557,11 @@
   <dimension ref="B2:AB12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C8" sqref="C8"/>
       <selection pane="topRight" activeCell="C8" sqref="C8"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomRight" activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,11 +1892,11 @@
         <v>1.8745783110559984</v>
       </c>
       <c r="N5" s="31">
-        <f t="shared" ref="N5:N12" si="5">100-SUM(K5:M5)</f>
+        <f t="shared" ref="N5:N11" si="5">100-SUM(K5:M5)</f>
         <v>79.168110286474956</v>
       </c>
       <c r="O5" s="9">
-        <f t="shared" ref="O5:O12" si="6">100-N5-SUM(P5:Q5)-G5</f>
+        <f t="shared" ref="O5:O11" si="6">100-N5-SUM(P5:Q5)-G5</f>
         <v>11.331889713525044</v>
       </c>
       <c r="P5" s="2">
@@ -2112,90 +2118,88 @@
       </c>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
+      <c r="B8" s="44">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="F8" s="42">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="D8" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="F8" s="47">
+        <v>0.15</v>
+      </c>
+      <c r="G8" s="48">
+        <v>0</v>
+      </c>
+      <c r="H8" s="47">
+        <v>0</v>
+      </c>
+      <c r="I8" s="47">
+        <v>0</v>
+      </c>
+      <c r="J8" s="47">
+        <v>0</v>
+      </c>
+      <c r="K8" s="49">
+        <v>15</v>
+      </c>
+      <c r="L8" s="50">
+        <v>10</v>
+      </c>
+      <c r="M8" s="49">
         <v>5</v>
       </c>
-      <c r="H8" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I8" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="K8" s="29">
-        <v>14.5079231933478</v>
-      </c>
-      <c r="L8" s="30">
-        <v>4.4493882091212456</v>
-      </c>
-      <c r="M8" s="29">
-        <v>1.8745783110559984</v>
-      </c>
-      <c r="N8" s="31">
-        <f t="shared" si="5"/>
-        <v>79.168110286474956</v>
-      </c>
-      <c r="O8" s="9">
-        <f t="shared" si="6"/>
-        <v>10.231889713525042</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="32">
-        <f>MIN(('NCES Data By Major'!D8+'NCES Data By Major'!E8)*100,
-100-(N8+P8+G8))</f>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="R8" s="2">
+      <c r="N8" s="51">
+        <f t="shared" ref="N8" si="7">100-SUM(K8:M8)</f>
+        <v>70</v>
+      </c>
+      <c r="O8" s="52">
+        <f t="shared" ref="O8" si="8">100-N8-SUM(P8:Q8)-G8</f>
+        <v>21</v>
+      </c>
+      <c r="P8" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="53">
+        <v>9</v>
+      </c>
+      <c r="R8" s="48">
+        <v>0</v>
+      </c>
+      <c r="S8" s="54">
+        <v>4104.0809867778062</v>
+      </c>
+      <c r="T8" s="54">
+        <v>3078.0607400833542</v>
+      </c>
+      <c r="U8" s="54">
+        <v>12</v>
+      </c>
+      <c r="V8" s="54">
+        <v>6</v>
+      </c>
+      <c r="W8" s="54">
+        <v>36</v>
+      </c>
+      <c r="X8" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="28">
-        <v>10250</v>
-      </c>
-      <c r="T8" s="28">
-        <v>0</v>
-      </c>
-      <c r="U8" s="28">
-        <v>0</v>
-      </c>
-      <c r="V8" s="28">
-        <v>0</v>
-      </c>
-      <c r="W8" s="28">
-        <v>0</v>
-      </c>
-      <c r="X8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y8" s="15" t="s">
+      <c r="Y8" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="Z8" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="8">
+      <c r="Z8" s="54">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="56">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="57">
         <v>72</v>
       </c>
     </row>
@@ -2458,91 +2462,89 @@
       </c>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
+      <c r="B12" s="69">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="F12" s="42">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>5</v>
-      </c>
-      <c r="H12" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I12" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="J12" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="K12" s="29">
-        <v>14.5079231933478</v>
-      </c>
-      <c r="L12" s="30">
-        <v>4.4493882091212456</v>
-      </c>
-      <c r="M12" s="29">
-        <v>1.8745783110559984</v>
-      </c>
-      <c r="N12" s="31">
-        <f t="shared" si="5"/>
-        <v>79.168110286474956</v>
-      </c>
-      <c r="O12" s="9">
-        <f t="shared" si="6"/>
-        <v>10.231889713525042</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="32">
-        <f>MIN(('NCES Data By Major'!D12+'NCES Data By Major'!E12)*100,
-100-(N12+P12+G12))</f>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="R12" s="2">
+      <c r="D12" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="65">
+        <v>0.15</v>
+      </c>
+      <c r="G12" s="66">
+        <v>0</v>
+      </c>
+      <c r="H12" s="65">
+        <v>0</v>
+      </c>
+      <c r="I12" s="65">
+        <v>0</v>
+      </c>
+      <c r="J12" s="65">
+        <v>0</v>
+      </c>
+      <c r="K12" s="67">
+        <v>68.796481574253903</v>
+      </c>
+      <c r="L12" s="68">
+        <v>0</v>
+      </c>
+      <c r="M12" s="67">
+        <v>0</v>
+      </c>
+      <c r="N12" s="51">
+        <f t="shared" ref="N12" si="9">100-SUM(K12:M12)</f>
+        <v>31.203518425746097</v>
+      </c>
+      <c r="O12" s="52">
+        <f t="shared" ref="O12" si="10">100-N12-SUM(P12:Q12)-G12</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="66">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="53">
+        <v>68.796481574253903</v>
+      </c>
+      <c r="R12" s="66">
+        <v>0</v>
+      </c>
+      <c r="S12" s="54">
+        <v>0</v>
+      </c>
+      <c r="T12" s="54">
+        <v>3078.0607400833542</v>
+      </c>
+      <c r="U12" s="54">
+        <v>12</v>
+      </c>
+      <c r="V12" s="54">
+        <v>6</v>
+      </c>
+      <c r="W12" s="54">
+        <v>36</v>
+      </c>
+      <c r="X12" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="S12" s="28">
-        <v>10250</v>
-      </c>
-      <c r="T12" s="28">
-        <v>0</v>
-      </c>
-      <c r="U12" s="28">
-        <v>0</v>
-      </c>
-      <c r="V12" s="28">
-        <v>0</v>
-      </c>
-      <c r="W12" s="28">
-        <v>0</v>
-      </c>
-      <c r="X12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y12" s="15" t="s">
+      <c r="Y12" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Z12" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="8">
-        <v>72</v>
+      <c r="Z12" s="54">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="75">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="76">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -5210,23 +5212,24 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:F23"/>
+  <dimension ref="B2:G31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>226</v>
       </c>
@@ -5242,8 +5245,11 @@
       <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>227</v>
       </c>
@@ -5257,7 +5263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>227</v>
       </c>
@@ -5271,7 +5277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>227</v>
       </c>
@@ -5285,7 +5291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>227</v>
       </c>
@@ -5299,7 +5305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>227</v>
       </c>
@@ -5314,7 +5320,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>227</v>
       </c>
@@ -5329,7 +5335,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>227</v>
       </c>
@@ -5344,7 +5350,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>227</v>
       </c>
@@ -5359,23 +5365,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="7">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E11" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -5387,52 +5393,55 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E13" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E14" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="7">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -5447,7 +5456,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
@@ -5462,7 +5471,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
@@ -5477,13 +5486,13 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="7">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E19" s="10">
         <v>12</v>
@@ -5491,7 +5500,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
@@ -5505,13 +5514,13 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E21" s="10">
         <v>12</v>
@@ -5519,13 +5528,13 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E22" s="10">
         <v>1</v>
@@ -5533,22 +5542,138 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="7">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="7">
+        <v>150</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="7">
+        <v>300</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="7">
+        <v>25</v>
+      </c>
+      <c r="E27" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="7">
+        <v>25</v>
+      </c>
+      <c r="E28" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="7">
+        <v>10</v>
+      </c>
+      <c r="E30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="7">
+        <v>40</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F23" xr:uid="{9E905705-5702-43B9-B10E-FBFFBDC727FD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F31" xr:uid="{9E905705-5702-43B9-B10E-FBFFBDC727FD}">
       <formula1>EventTypes</formula1>
     </dataValidation>
   </dataValidations>

--- a/EduSafe.Core.Tests/Resources/EduSafe-Website-For-Profit-Scenario-Testing-Small.xlsx
+++ b/EduSafe.Core.Tests/Resources/EduSafe-Website-For-Profit-Scenario-Testing-Small.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew M\edusafe\EduSafe.Core.Tests\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CDCF69-459C-48B2-9758-6C45BFDE9509}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653E9381-4868-4BA1-81D0-C126D2BE4AFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1545" yWindow="420" windowWidth="16215" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="2" r:id="rId1"/>
@@ -1561,7 +1561,7 @@
       <selection activeCell="C8" sqref="C8"/>
       <selection pane="topRight" activeCell="C8" sqref="C8"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-      <selection pane="bottomRight" activeCell="X9" sqref="X9"/>
+      <selection pane="bottomRight" activeCell="W2" sqref="V2:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
